--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1245966.589429658</v>
+        <v>1245339.54700673</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15146261.88862855</v>
+        <v>15146261.88862852</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736559</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8212263.203228896</v>
+        <v>8212263.203228901</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="D11" t="n">
-        <v>146.4499769106675</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10.95822115026413</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.4499769106675</v>
+        <v>95.38785748298298</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>36.72024109999224</v>
       </c>
       <c r="V11" t="n">
-        <v>118.0349185126518</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>143.3350179906085</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335315913</v>
+        <v>0.7169426335314492</v>
       </c>
       <c r="V12" t="n">
-        <v>10.53710347578306</v>
+        <v>10.53710347578291</v>
       </c>
       <c r="W12" t="n">
-        <v>23.32814722865675</v>
+        <v>23.3281472286566</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563961</v>
+        <v>14.27407766563947</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155495</v>
+        <v>68.73102716155481</v>
       </c>
       <c r="V13" t="n">
-        <v>42.5533885467953</v>
+        <v>42.55338854679516</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740856</v>
+        <v>67.72027461740842</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321168</v>
+        <v>13.36537661321154</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369279367</v>
+        <v>4.240244369279225</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.813007406590714</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="D14" t="n">
-        <v>116.4277842972061</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.260172663733029</v>
+        <v>4.260172663732887</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999239</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>118.0349185126518</v>
+        <v>118.0349185126516</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>143.3350179906085</v>
       </c>
       <c r="X14" t="n">
-        <v>146.4499769106675</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106677</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7169426335315913</v>
+        <v>0.7169426335314492</v>
       </c>
       <c r="V15" t="n">
-        <v>10.53710347578306</v>
+        <v>10.53710347578291</v>
       </c>
       <c r="W15" t="n">
-        <v>23.32814722865675</v>
+        <v>23.3281472286566</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.27407766563961</v>
+        <v>14.27407766563947</v>
       </c>
       <c r="U16" t="n">
-        <v>68.73102716155495</v>
+        <v>68.73102716155481</v>
       </c>
       <c r="V16" t="n">
-        <v>42.5533885467953</v>
+        <v>42.55338854679516</v>
       </c>
       <c r="W16" t="n">
-        <v>67.72027461740856</v>
+        <v>67.72027461740842</v>
       </c>
       <c r="X16" t="n">
-        <v>13.36537661321168</v>
+        <v>13.36537661321154</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.240244369279367</v>
+        <v>4.240244369279225</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>85.85217687497902</v>
       </c>
       <c r="G17" t="n">
-        <v>87.26445761256154</v>
+        <v>87.26445761256156</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>34.75207893302263</v>
       </c>
       <c r="X17" t="n">
-        <v>54.05233716576838</v>
+        <v>54.05233716576925</v>
       </c>
       <c r="Y17" t="n">
         <v>65.44893496196801</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>65.94560221488655</v>
+        <v>65.94560221488661</v>
       </c>
       <c r="C20" t="n">
-        <v>53.95691917256829</v>
+        <v>53.95691917256835</v>
       </c>
       <c r="D20" t="n">
-        <v>44.93822321709627</v>
+        <v>44.93822321709632</v>
       </c>
       <c r="E20" t="n">
-        <v>66.6803607870018</v>
+        <v>66.68036078700186</v>
       </c>
       <c r="F20" t="n">
-        <v>85.85217687497897</v>
+        <v>85.85217687497843</v>
       </c>
       <c r="G20" t="n">
-        <v>87.26445761256149</v>
+        <v>87.26445761256156</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.451979455065668</v>
+        <v>9.451979455065725</v>
       </c>
       <c r="W20" t="n">
-        <v>34.75207893302257</v>
+        <v>34.75207893302263</v>
       </c>
       <c r="X20" t="n">
-        <v>54.05233716576919</v>
+        <v>54.05233716576925</v>
       </c>
       <c r="Y20" t="n">
-        <v>65.44893496196795</v>
+        <v>65.44893496196801</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65.94560221488655</v>
+        <v>65.94560221488661</v>
       </c>
       <c r="C23" t="n">
-        <v>53.95691917256829</v>
+        <v>53.95691917256835</v>
       </c>
       <c r="D23" t="n">
-        <v>44.93822321709627</v>
+        <v>44.93822321709632</v>
       </c>
       <c r="E23" t="n">
-        <v>66.6803607870018</v>
+        <v>66.68036078700186</v>
       </c>
       <c r="F23" t="n">
-        <v>85.85217687497897</v>
+        <v>85.85217687497902</v>
       </c>
       <c r="G23" t="n">
-        <v>87.2644576125615</v>
+        <v>87.26445761256156</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>9.451979455065668</v>
+        <v>9.451979455065725</v>
       </c>
       <c r="W23" t="n">
-        <v>34.75207893302257</v>
+        <v>34.75207893302263</v>
       </c>
       <c r="X23" t="n">
-        <v>54.05233716576919</v>
+        <v>54.05233716576925</v>
       </c>
       <c r="Y23" t="n">
-        <v>65.44893496196795</v>
+        <v>65.44893496196801</v>
       </c>
     </row>
     <row r="24">
@@ -2798,7 +2798,7 @@
         <v>195.6110344139531</v>
       </c>
       <c r="E29" t="n">
-        <v>217.3531719838586</v>
+        <v>217.3531719838576</v>
       </c>
       <c r="F29" t="n">
         <v>236.5249880718358</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>216.6184134117434</v>
+        <v>216.6184134117433</v>
       </c>
       <c r="C32" t="n">
-        <v>204.6297303694252</v>
+        <v>204.6297303694251</v>
       </c>
       <c r="D32" t="n">
         <v>195.6110344139531</v>
       </c>
       <c r="E32" t="n">
-        <v>217.3531719838587</v>
+        <v>217.3531719838586</v>
       </c>
       <c r="F32" t="n">
         <v>236.5249880718358</v>
       </c>
       <c r="G32" t="n">
-        <v>237.9372688094184</v>
+        <v>237.9372688094183</v>
       </c>
       <c r="H32" t="n">
-        <v>150.6728111968569</v>
+        <v>150.6728111968568</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.35004480300381</v>
+        <v>46.35004480300373</v>
       </c>
       <c r="U32" t="n">
-        <v>78.81011323926319</v>
+        <v>78.8101132392631</v>
       </c>
       <c r="V32" t="n">
-        <v>160.1247906519226</v>
+        <v>160.1247906519225</v>
       </c>
       <c r="W32" t="n">
-        <v>185.4248901298795</v>
+        <v>185.4248901298794</v>
       </c>
       <c r="X32" t="n">
-        <v>204.7251483626261</v>
+        <v>204.725148362626</v>
       </c>
       <c r="Y32" t="n">
-        <v>216.1217461588248</v>
+        <v>216.1217461588247</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.1899930659624</v>
+        <v>12.18999306596231</v>
       </c>
       <c r="U33" t="n">
-        <v>42.80681477280239</v>
+        <v>42.8068147728023</v>
       </c>
       <c r="V33" t="n">
-        <v>52.62697561505385</v>
+        <v>52.62697561505377</v>
       </c>
       <c r="W33" t="n">
-        <v>65.41801936792754</v>
+        <v>65.41801936792746</v>
       </c>
       <c r="X33" t="n">
-        <v>22.45312752988784</v>
+        <v>22.45312752988775</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.11142237582143</v>
+        <v>17.11142237582135</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.235124286440509</v>
+        <v>8.235124286440424</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.01527457283489</v>
+        <v>34.01527457283481</v>
       </c>
       <c r="T34" t="n">
-        <v>56.3639498049104</v>
+        <v>56.36394980491032</v>
       </c>
       <c r="U34" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V34" t="n">
-        <v>84.6432606860661</v>
+        <v>84.64326068606601</v>
       </c>
       <c r="W34" t="n">
-        <v>109.8101467566794</v>
+        <v>109.8101467566793</v>
       </c>
       <c r="X34" t="n">
-        <v>55.45524875248248</v>
+        <v>55.45524875248239</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.33011650855016</v>
+        <v>46.33011650855008</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.899715689057</v>
+        <v>172.8997156890579</v>
       </c>
       <c r="C35" t="n">
-        <v>160.9110326467388</v>
+        <v>160.9110326467396</v>
       </c>
       <c r="D35" t="n">
-        <v>151.8923366912668</v>
+        <v>151.8923366912676</v>
       </c>
       <c r="E35" t="n">
-        <v>173.6344742611723</v>
+        <v>173.6344742611731</v>
       </c>
       <c r="F35" t="n">
-        <v>192.8062903491495</v>
+        <v>192.8062903491503</v>
       </c>
       <c r="G35" t="n">
-        <v>194.218571086732</v>
+        <v>194.2185710867328</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9541134741705</v>
+        <v>106.9541134741713</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.631347080317425</v>
+        <v>2.63134708031825</v>
       </c>
       <c r="U35" t="n">
-        <v>35.0914155165768</v>
+        <v>35.09141551657763</v>
       </c>
       <c r="V35" t="n">
-        <v>116.4060929292362</v>
+        <v>116.406092929237</v>
       </c>
       <c r="W35" t="n">
-        <v>141.7061924071931</v>
+        <v>141.7061924071939</v>
       </c>
       <c r="X35" t="n">
-        <v>161.0064506399397</v>
+        <v>161.0064506399405</v>
       </c>
       <c r="Y35" t="n">
-        <v>172.4030484361384</v>
+        <v>172.4030484361393</v>
       </c>
     </row>
     <row r="36">
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.908277892367465</v>
+        <v>8.908277892368289</v>
       </c>
       <c r="W36" t="n">
-        <v>21.69932164524116</v>
+        <v>21.69932164524198</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.64525208222402</v>
+        <v>12.64525208222484</v>
       </c>
       <c r="U37" t="n">
-        <v>67.10220157813936</v>
+        <v>67.10220157814018</v>
       </c>
       <c r="V37" t="n">
-        <v>40.92456296337971</v>
+        <v>40.92456296338054</v>
       </c>
       <c r="W37" t="n">
-        <v>66.09144903399297</v>
+        <v>66.0914490339938</v>
       </c>
       <c r="X37" t="n">
-        <v>11.73655102979609</v>
+        <v>11.73655102979691</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.611418785863776</v>
+        <v>2.611418785864601</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.899715689057</v>
+        <v>172.8997156890579</v>
       </c>
       <c r="C38" t="n">
-        <v>160.9110326467388</v>
+        <v>160.9110326467396</v>
       </c>
       <c r="D38" t="n">
-        <v>151.8923366912668</v>
+        <v>151.8923366912676</v>
       </c>
       <c r="E38" t="n">
-        <v>173.6344742611723</v>
+        <v>173.6344742611731</v>
       </c>
       <c r="F38" t="n">
-        <v>192.8062903491495</v>
+        <v>192.8062903491503</v>
       </c>
       <c r="G38" t="n">
-        <v>194.218571086732</v>
+        <v>194.2185710867328</v>
       </c>
       <c r="H38" t="n">
-        <v>106.9541134741705</v>
+        <v>106.9541134741713</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.631347080317439</v>
+        <v>2.631347080318263</v>
       </c>
       <c r="U38" t="n">
-        <v>35.0914155165768</v>
+        <v>35.09141551657762</v>
       </c>
       <c r="V38" t="n">
-        <v>116.4060929292362</v>
+        <v>116.406092929237</v>
       </c>
       <c r="W38" t="n">
-        <v>141.7061924071931</v>
+        <v>141.7061924071939</v>
       </c>
       <c r="X38" t="n">
-        <v>161.0064506399397</v>
+        <v>161.0064506399405</v>
       </c>
       <c r="Y38" t="n">
-        <v>172.4030484361384</v>
+        <v>172.4030484361393</v>
       </c>
     </row>
     <row r="39">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>8.908277892367465</v>
+        <v>8.908277892368289</v>
       </c>
       <c r="W39" t="n">
-        <v>21.69932164524116</v>
+        <v>21.69932164524198</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.64525208222402</v>
+        <v>12.64525208222484</v>
       </c>
       <c r="U40" t="n">
-        <v>67.10220157813936</v>
+        <v>67.10220157814018</v>
       </c>
       <c r="V40" t="n">
-        <v>40.92456296337971</v>
+        <v>40.92456296338054</v>
       </c>
       <c r="W40" t="n">
-        <v>66.09144903399297</v>
+        <v>66.0914490339938</v>
       </c>
       <c r="X40" t="n">
-        <v>11.73655102979609</v>
+        <v>11.73655102979691</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.611418785863776</v>
+        <v>2.611418785864601</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8997156890569</v>
+        <v>172.8997156890578</v>
       </c>
       <c r="C41" t="n">
-        <v>160.9110326467387</v>
+        <v>160.9110326467396</v>
       </c>
       <c r="D41" t="n">
-        <v>151.8923366912666</v>
+        <v>151.8923366912676</v>
       </c>
       <c r="E41" t="n">
-        <v>173.6344742611722</v>
+        <v>173.6344742611731</v>
       </c>
       <c r="F41" t="n">
-        <v>192.8062903491494</v>
+        <v>192.8062903491503</v>
       </c>
       <c r="G41" t="n">
-        <v>194.2185710867319</v>
+        <v>194.2185710867328</v>
       </c>
       <c r="H41" t="n">
-        <v>106.9541134741704</v>
+        <v>106.9541134741713</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317325</v>
+        <v>2.631347080318235</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657668</v>
+        <v>35.09141551657759</v>
       </c>
       <c r="V41" t="n">
-        <v>116.4060929292361</v>
+        <v>116.406092929237</v>
       </c>
       <c r="W41" t="n">
-        <v>141.706192407193</v>
+        <v>141.7061924071939</v>
       </c>
       <c r="X41" t="n">
-        <v>161.0064506399396</v>
+        <v>161.0064506399405</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4030484361383</v>
+        <v>172.4030484361392</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.908277892367352</v>
+        <v>8.908277892368261</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524104</v>
+        <v>21.69932164524195</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.6452520822239</v>
+        <v>12.64525208222481</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813924</v>
+        <v>67.10220157814015</v>
       </c>
       <c r="V43" t="n">
-        <v>40.9245629633796</v>
+        <v>40.92456296338051</v>
       </c>
       <c r="W43" t="n">
-        <v>66.09144903399286</v>
+        <v>66.09144903399377</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979598</v>
+        <v>11.73655102979689</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785863663</v>
+        <v>2.611418785864572</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.8997156890569</v>
+        <v>172.8997156890578</v>
       </c>
       <c r="C44" t="n">
-        <v>160.9110326467387</v>
+        <v>160.9110326467396</v>
       </c>
       <c r="D44" t="n">
-        <v>151.8923366912666</v>
+        <v>151.8923366912676</v>
       </c>
       <c r="E44" t="n">
-        <v>173.6344742611722</v>
+        <v>173.6344742611731</v>
       </c>
       <c r="F44" t="n">
-        <v>192.8062903491494</v>
+        <v>192.8062903491503</v>
       </c>
       <c r="G44" t="n">
-        <v>194.2185710867319</v>
+        <v>194.2185710867328</v>
       </c>
       <c r="H44" t="n">
-        <v>106.9541134741704</v>
+        <v>106.954113474173</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317325</v>
+        <v>2.631347080318221</v>
       </c>
       <c r="U44" t="n">
-        <v>35.09141551657668</v>
+        <v>35.0914155165776</v>
       </c>
       <c r="V44" t="n">
-        <v>116.4060929292361</v>
+        <v>116.406092929237</v>
       </c>
       <c r="W44" t="n">
-        <v>141.706192407193</v>
+        <v>141.7061924071939</v>
       </c>
       <c r="X44" t="n">
-        <v>161.0064506399412</v>
+        <v>161.0064506399405</v>
       </c>
       <c r="Y44" t="n">
-        <v>172.4030484361383</v>
+        <v>172.4030484361392</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>8.908277892367352</v>
+        <v>8.908277892368261</v>
       </c>
       <c r="W45" t="n">
-        <v>21.69932164524104</v>
+        <v>21.69932164524195</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.6452520822239</v>
+        <v>12.64525208222481</v>
       </c>
       <c r="U46" t="n">
-        <v>67.10220157813924</v>
+        <v>67.10220157814015</v>
       </c>
       <c r="V46" t="n">
-        <v>40.9245629633796</v>
+        <v>40.92456296338051</v>
       </c>
       <c r="W46" t="n">
-        <v>66.09144903399286</v>
+        <v>66.09144903399377</v>
       </c>
       <c r="X46" t="n">
-        <v>11.73655102979598</v>
+        <v>11.73655102979689</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.611418785863663</v>
+        <v>2.611418785864572</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>466.57271722585</v>
+        <v>255.9966389545208</v>
       </c>
       <c r="C11" t="n">
-        <v>318.6434476191151</v>
+        <v>108.0673693477857</v>
       </c>
       <c r="D11" t="n">
-        <v>170.7141780123803</v>
+        <v>108.0673693477857</v>
       </c>
       <c r="E11" t="n">
-        <v>170.7141780123803</v>
+        <v>108.0673693477857</v>
       </c>
       <c r="F11" t="n">
-        <v>159.6452677595883</v>
+        <v>108.0673693477857</v>
       </c>
       <c r="G11" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H11" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I11" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J11" t="n">
-        <v>123.2819685389582</v>
+        <v>123.2819685389584</v>
       </c>
       <c r="K11" t="n">
-        <v>225.274817055677</v>
+        <v>123.2819685389584</v>
       </c>
       <c r="L11" t="n">
-        <v>225.274817055677</v>
+        <v>228.449700133524</v>
       </c>
       <c r="M11" t="n">
-        <v>225.274817055677</v>
+        <v>228.449700133524</v>
       </c>
       <c r="N11" t="n">
-        <v>346.1909322312011</v>
+        <v>349.3658153090482</v>
       </c>
       <c r="O11" t="n">
-        <v>346.1909322312011</v>
+        <v>370.1343438676958</v>
       </c>
       <c r="P11" t="n">
-        <v>447.7811272631712</v>
+        <v>471.724538899666</v>
       </c>
       <c r="Q11" t="n">
-        <v>538.0809498278736</v>
+        <v>471.724538899666</v>
       </c>
       <c r="R11" t="n">
-        <v>544.1309342247921</v>
+        <v>544.1309342247927</v>
       </c>
       <c r="S11" t="n">
-        <v>585.7999076426701</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="T11" t="n">
-        <v>585.7999076426701</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="U11" t="n">
-        <v>585.7999076426701</v>
+        <v>548.708755016416</v>
       </c>
       <c r="V11" t="n">
-        <v>466.57271722585</v>
+        <v>548.708755016416</v>
       </c>
       <c r="W11" t="n">
-        <v>466.57271722585</v>
+        <v>403.9259085612558</v>
       </c>
       <c r="X11" t="n">
-        <v>466.57271722585</v>
+        <v>403.9259085612558</v>
       </c>
       <c r="Y11" t="n">
-        <v>466.57271722585</v>
+        <v>255.9966389545208</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H12" t="n">
-        <v>11.7159981528534</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="I12" t="n">
-        <v>11.7159981528534</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="J12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="K12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="L12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="M12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="N12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="O12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="P12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="R12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="U12" t="n">
-        <v>45.92332209673199</v>
+        <v>45.92332209673172</v>
       </c>
       <c r="V12" t="n">
-        <v>35.27978323230467</v>
+        <v>35.27978323230453</v>
       </c>
       <c r="W12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C13" t="n">
-        <v>58.89420363020891</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D13" t="n">
-        <v>80.21308526783889</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E13" t="n">
-        <v>80.21308526783889</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F13" t="n">
-        <v>80.21308526783889</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G13" t="n">
-        <v>80.21308526783889</v>
+        <v>59.80792967558389</v>
       </c>
       <c r="H13" t="n">
-        <v>80.21308526783889</v>
+        <v>59.80792967558389</v>
       </c>
       <c r="I13" t="n">
-        <v>80.21308526783889</v>
+        <v>59.80792967558389</v>
       </c>
       <c r="J13" t="n">
-        <v>80.21308526783889</v>
+        <v>86.79342122629748</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7366808791419</v>
+        <v>86.79342122629748</v>
       </c>
       <c r="L13" t="n">
-        <v>216.7366808791419</v>
+        <v>86.79342122629748</v>
       </c>
       <c r="M13" t="n">
-        <v>216.7366808791419</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="N13" t="n">
-        <v>216.7366808791419</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="O13" t="n">
-        <v>216.7366808791419</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="P13" t="n">
-        <v>216.7366808791419</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="Q13" t="n">
-        <v>216.7366808791419</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="R13" t="n">
-        <v>216.7366808791419</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699135</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="T13" t="n">
-        <v>210.3122722015906</v>
+        <v>210.31227220159</v>
       </c>
       <c r="U13" t="n">
-        <v>140.886992240424</v>
+        <v>140.8869922404235</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608533</v>
+        <v>97.90377148608492</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072315</v>
+        <v>29.49945369072287</v>
       </c>
       <c r="X13" t="n">
-        <v>15.99907327333761</v>
+        <v>15.99907327333748</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.3198206752838</v>
+        <v>159.6452677595885</v>
       </c>
       <c r="C14" t="n">
-        <v>129.3198206752838</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D14" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E14" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F14" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G14" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H14" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I14" t="n">
-        <v>11.7159981528534</v>
+        <v>75.64118274439146</v>
       </c>
       <c r="J14" t="n">
-        <v>11.7159981528534</v>
+        <v>75.64118274439146</v>
       </c>
       <c r="K14" t="n">
-        <v>113.7088466695722</v>
+        <v>75.64118274439146</v>
       </c>
       <c r="L14" t="n">
-        <v>113.7088466695722</v>
+        <v>75.64118274439146</v>
       </c>
       <c r="M14" t="n">
-        <v>232.4088913032002</v>
+        <v>194.3412273780196</v>
       </c>
       <c r="N14" t="n">
-        <v>353.3250064787243</v>
+        <v>315.2573425535438</v>
       </c>
       <c r="O14" t="n">
-        <v>353.3250064787243</v>
+        <v>430.4935815373042</v>
       </c>
       <c r="P14" t="n">
-        <v>454.9152015106944</v>
+        <v>513.3935123175442</v>
       </c>
       <c r="Q14" t="n">
-        <v>544.1309342247921</v>
+        <v>513.3935123175442</v>
       </c>
       <c r="R14" t="n">
-        <v>544.1309342247921</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="S14" t="n">
-        <v>585.7999076426701</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="T14" t="n">
-        <v>581.4967029318286</v>
+        <v>581.4967029318295</v>
       </c>
       <c r="U14" t="n">
-        <v>544.4055503055737</v>
+        <v>581.4967029318295</v>
       </c>
       <c r="V14" t="n">
-        <v>425.1783598887536</v>
+        <v>462.2695125150097</v>
       </c>
       <c r="W14" t="n">
-        <v>425.1783598887536</v>
+        <v>317.4866660598495</v>
       </c>
       <c r="X14" t="n">
-        <v>277.2490902820187</v>
+        <v>317.4866660598495</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.3198206752838</v>
+        <v>169.5573964531145</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H15" t="n">
-        <v>11.7159981528534</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="I15" t="n">
-        <v>11.7159981528534</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="J15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="K15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="L15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="M15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="N15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="O15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="P15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="R15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="S15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="T15" t="n">
-        <v>46.64750657504673</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="U15" t="n">
-        <v>45.92332209673199</v>
+        <v>45.92332209673172</v>
       </c>
       <c r="V15" t="n">
-        <v>35.27978323230467</v>
+        <v>35.27978323230453</v>
       </c>
       <c r="W15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O16" t="n">
-        <v>113.8053112657715</v>
+        <v>146.4655124673205</v>
       </c>
       <c r="P16" t="n">
-        <v>113.8053112657715</v>
+        <v>146.4655124673205</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.7305324699135</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="R16" t="n">
-        <v>224.7305324699135</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="S16" t="n">
-        <v>224.7305324699135</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="T16" t="n">
-        <v>210.3122722015906</v>
+        <v>210.31227220159</v>
       </c>
       <c r="U16" t="n">
-        <v>140.886992240424</v>
+        <v>140.8869922404235</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608533</v>
+        <v>97.90377148608492</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49945369072315</v>
+        <v>29.49945369072287</v>
       </c>
       <c r="X16" t="n">
-        <v>15.99907327333761</v>
+        <v>15.99907327333748</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.829268520739</v>
+        <v>353.8292685207393</v>
       </c>
       <c r="C17" t="n">
-        <v>299.3273299625892</v>
+        <v>299.3273299625894</v>
       </c>
       <c r="D17" t="n">
-        <v>253.9351852988557</v>
+        <v>253.9351852988558</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5812855140054</v>
+        <v>186.5812855140052</v>
       </c>
       <c r="F17" t="n">
-        <v>99.8619149332186</v>
+        <v>99.86191493321837</v>
       </c>
       <c r="G17" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H17" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I17" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J17" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K17" t="n">
-        <v>156.7014752944143</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L17" t="n">
-        <v>156.7014752944143</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="M17" t="n">
-        <v>156.7014752944143</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="N17" t="n">
-        <v>301.6869524359751</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="O17" t="n">
-        <v>301.6869524359751</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="P17" t="n">
-        <v>301.6869524359751</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.6869524359751</v>
+        <v>446.6724295775365</v>
       </c>
       <c r="R17" t="n">
-        <v>301.6869524359751</v>
+        <v>446.6724295775365</v>
       </c>
       <c r="S17" t="n">
-        <v>411.3762979347379</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="T17" t="n">
-        <v>514.6558366646524</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="U17" t="n">
-        <v>585.7999076426701</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="V17" t="n">
-        <v>576.2524536476542</v>
+        <v>576.2524536476551</v>
       </c>
       <c r="W17" t="n">
-        <v>541.149343614298</v>
+        <v>541.1493436142989</v>
       </c>
       <c r="X17" t="n">
-        <v>486.5510232448349</v>
+        <v>486.5510232448351</v>
       </c>
       <c r="Y17" t="n">
-        <v>420.4409879297154</v>
+        <v>420.4409879297157</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207396</v>
+        <v>353.8292685207395</v>
       </c>
       <c r="C20" t="n">
         <v>299.3273299625896</v>
       </c>
       <c r="D20" t="n">
-        <v>253.9351852988561</v>
+        <v>253.935185298856</v>
       </c>
       <c r="E20" t="n">
-        <v>186.5812855140059</v>
+        <v>186.5812855140054</v>
       </c>
       <c r="F20" t="n">
-        <v>99.86191493321905</v>
+        <v>99.86191493321863</v>
       </c>
       <c r="G20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I20" t="n">
-        <v>156.7014752944143</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7014752944143</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K20" t="n">
-        <v>156.7014752944143</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L20" t="n">
-        <v>156.7014752944143</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M20" t="n">
-        <v>156.7014752944143</v>
+        <v>150.8434762179878</v>
       </c>
       <c r="N20" t="n">
-        <v>156.7014752944143</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="O20" t="n">
-        <v>301.6869524359752</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="P20" t="n">
-        <v>301.6869524359752</v>
+        <v>440.8144305011098</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.6869524359752</v>
+        <v>440.8144305011098</v>
       </c>
       <c r="R20" t="n">
-        <v>301.6869524359752</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="S20" t="n">
-        <v>411.376297934738</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="T20" t="n">
-        <v>514.6558366646525</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="U20" t="n">
-        <v>585.7999076426703</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="V20" t="n">
-        <v>576.2524536476549</v>
+        <v>576.252453647655</v>
       </c>
       <c r="W20" t="n">
-        <v>541.1493436142989</v>
+        <v>541.1493436142988</v>
       </c>
       <c r="X20" t="n">
-        <v>486.5510232448351</v>
+        <v>486.5510232448348</v>
       </c>
       <c r="Y20" t="n">
-        <v>420.4409879297159</v>
+        <v>420.4409879297156</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.8292685207389</v>
+        <v>353.8292685207394</v>
       </c>
       <c r="C23" t="n">
-        <v>299.3273299625891</v>
+        <v>299.3273299625894</v>
       </c>
       <c r="D23" t="n">
-        <v>253.9351852988555</v>
+        <v>253.9351852988557</v>
       </c>
       <c r="E23" t="n">
         <v>186.5812855140052</v>
       </c>
       <c r="F23" t="n">
-        <v>99.86191493321856</v>
+        <v>99.86191493321863</v>
       </c>
       <c r="G23" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H23" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I23" t="n">
-        <v>11.71599815285341</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="J23" t="n">
-        <v>11.71599815285341</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="K23" t="n">
-        <v>156.7014752944143</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="L23" t="n">
-        <v>156.7014752944143</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="M23" t="n">
-        <v>156.7014752944143</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="N23" t="n">
-        <v>156.7014752944143</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="O23" t="n">
-        <v>156.7014752944143</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="P23" t="n">
-        <v>192.549414629634</v>
+        <v>295.8289533595488</v>
       </c>
       <c r="Q23" t="n">
-        <v>192.549414629634</v>
+        <v>440.8144305011098</v>
       </c>
       <c r="R23" t="n">
-        <v>337.5348917711949</v>
+        <v>440.8144305011098</v>
       </c>
       <c r="S23" t="n">
-        <v>482.5203689127558</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="T23" t="n">
-        <v>585.7999076426703</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="U23" t="n">
-        <v>585.7999076426703</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="V23" t="n">
-        <v>576.2524536476544</v>
+        <v>576.2524536476549</v>
       </c>
       <c r="W23" t="n">
-        <v>541.1493436142983</v>
+        <v>541.1493436142987</v>
       </c>
       <c r="X23" t="n">
-        <v>486.5510232448345</v>
+        <v>486.5510232448351</v>
       </c>
       <c r="Y23" t="n">
-        <v>420.4409879297153</v>
+        <v>420.4409879297158</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>48.46225833029499</v>
       </c>
       <c r="I26" t="n">
-        <v>70.71846950395488</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6154664721817</v>
+        <v>164.2367552209962</v>
       </c>
       <c r="K26" t="n">
-        <v>618.1144875501116</v>
+        <v>164.2367552209962</v>
       </c>
       <c r="L26" t="n">
-        <v>1217.834934387512</v>
+        <v>609.8115434012192</v>
       </c>
       <c r="M26" t="n">
-        <v>1701.640079404553</v>
+        <v>1093.61668841826</v>
       </c>
       <c r="N26" t="n">
-        <v>1859.455817663714</v>
+        <v>1438.274795508179</v>
       </c>
       <c r="O26" t="n">
-        <v>2423.112916514749</v>
+        <v>1511.842061074061</v>
       </c>
       <c r="P26" t="n">
-        <v>2423.112916514749</v>
+        <v>1985.918220104851</v>
       </c>
       <c r="Q26" t="n">
-        <v>2423.112916514749</v>
+        <v>2307.798462230973</v>
       </c>
       <c r="R26" t="n">
         <v>2423.112916514749</v>
@@ -6266,7 +6266,7 @@
         <v>1947.648432854074</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.855353699906</v>
+        <v>1740.855353699907</v>
       </c>
       <c r="Y26" t="n">
         <v>1522.550559600083</v>
@@ -6303,19 +6303,19 @@
         <v>48.46225833029499</v>
       </c>
       <c r="J27" t="n">
-        <v>144.2597436682</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="K27" t="n">
-        <v>144.2597436682</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="L27" t="n">
-        <v>144.2597436682</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="M27" t="n">
-        <v>263.216149974189</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="N27" t="n">
-        <v>263.216149974189</v>
+        <v>140.508024204483</v>
       </c>
       <c r="O27" t="n">
         <v>263.216149974189</v>
@@ -6379,31 +6379,31 @@
         <v>48.46225833029499</v>
       </c>
       <c r="I28" t="n">
-        <v>48.46225833029499</v>
+        <v>54.54714308403646</v>
       </c>
       <c r="J28" t="n">
-        <v>48.46225833029499</v>
+        <v>54.54714308403646</v>
       </c>
       <c r="K28" t="n">
-        <v>48.46225833029499</v>
+        <v>54.54714308403646</v>
       </c>
       <c r="L28" t="n">
-        <v>355.2160940879966</v>
+        <v>361.300978841738</v>
       </c>
       <c r="M28" t="n">
-        <v>468.2936811305877</v>
+        <v>361.300978841738</v>
       </c>
       <c r="N28" t="n">
-        <v>468.2936811305877</v>
+        <v>361.300978841738</v>
       </c>
       <c r="O28" t="n">
-        <v>468.2936811305877</v>
+        <v>454.3815197383269</v>
       </c>
       <c r="P28" t="n">
-        <v>559.244097389678</v>
+        <v>454.3815197383269</v>
       </c>
       <c r="Q28" t="n">
-        <v>559.244097389678</v>
+        <v>523.6377675245908</v>
       </c>
       <c r="R28" t="n">
         <v>559.244097389678</v>
@@ -6443,13 +6443,13 @@
         <v>1097.04738406355</v>
       </c>
       <c r="D29" t="n">
-        <v>899.4604806151126</v>
+        <v>899.4604806151127</v>
       </c>
       <c r="E29" t="n">
-        <v>679.9118220455584</v>
+        <v>679.9118220455586</v>
       </c>
       <c r="F29" t="n">
-        <v>440.9976926800678</v>
+        <v>440.9976926800679</v>
       </c>
       <c r="G29" t="n">
         <v>200.6570171149989</v>
@@ -6461,22 +6461,22 @@
         <v>70.71846950395488</v>
       </c>
       <c r="J29" t="n">
-        <v>70.71846950395488</v>
+        <v>358.2428101986407</v>
       </c>
       <c r="K29" t="n">
-        <v>548.2174905818846</v>
+        <v>418.5666852974815</v>
       </c>
       <c r="L29" t="n">
-        <v>977.4963880810171</v>
+        <v>847.8455827966139</v>
       </c>
       <c r="M29" t="n">
-        <v>1461.301533098058</v>
+        <v>1447.566029634015</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.99699849076</v>
+        <v>1511.842061074061</v>
       </c>
       <c r="O29" t="n">
-        <v>1925.99699849076</v>
+        <v>1511.842061074061</v>
       </c>
       <c r="P29" t="n">
         <v>1985.918220104852</v>
@@ -6534,31 +6534,31 @@
         <v>48.462258330295</v>
       </c>
       <c r="H30" t="n">
-        <v>48.462258330295</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="I30" t="n">
-        <v>149.6602203966218</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="J30" t="n">
-        <v>149.6602203966218</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="K30" t="n">
-        <v>149.6602203966218</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="L30" t="n">
-        <v>149.6602203966218</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="M30" t="n">
-        <v>149.6602203966218</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="N30" t="n">
-        <v>263.216149974189</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="O30" t="n">
-        <v>263.216149974189</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="P30" t="n">
-        <v>263.216149974189</v>
+        <v>124.9282506876108</v>
       </c>
       <c r="Q30" t="n">
         <v>263.216149974189</v>
@@ -6604,40 +6604,40 @@
         <v>70.18633963616986</v>
       </c>
       <c r="E31" t="n">
-        <v>70.18633963616986</v>
+        <v>92.95214858482308</v>
       </c>
       <c r="F31" t="n">
-        <v>70.18633963616986</v>
+        <v>92.95214858482308</v>
       </c>
       <c r="G31" t="n">
-        <v>70.18633963616986</v>
+        <v>92.95214858482308</v>
       </c>
       <c r="H31" t="n">
-        <v>70.18633963616986</v>
+        <v>92.95214858482308</v>
       </c>
       <c r="I31" t="n">
-        <v>107.5604038605844</v>
+        <v>92.95214858482308</v>
       </c>
       <c r="J31" t="n">
-        <v>107.5604038605844</v>
+        <v>92.95214858482308</v>
       </c>
       <c r="K31" t="n">
-        <v>107.5604038605844</v>
+        <v>325.1859980638159</v>
       </c>
       <c r="L31" t="n">
-        <v>107.5604038605844</v>
+        <v>460.1899900175328</v>
       </c>
       <c r="M31" t="n">
-        <v>227.2875895403392</v>
+        <v>460.1899900175328</v>
       </c>
       <c r="N31" t="n">
-        <v>227.2875895403392</v>
+        <v>460.1899900175328</v>
       </c>
       <c r="O31" t="n">
-        <v>227.2875895403392</v>
+        <v>460.1899900175328</v>
       </c>
       <c r="P31" t="n">
-        <v>489.9878496034141</v>
+        <v>549.1368030954368</v>
       </c>
       <c r="Q31" t="n">
         <v>559.244097389678</v>
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1303.744081406403</v>
+        <v>1303.744081406404</v>
       </c>
       <c r="C32" t="n">
-        <v>1097.047384063549</v>
+        <v>1097.047384063551</v>
       </c>
       <c r="D32" t="n">
-        <v>899.4604806151119</v>
+        <v>899.4604806151131</v>
       </c>
       <c r="E32" t="n">
-        <v>679.9118220455578</v>
+        <v>679.9118220455589</v>
       </c>
       <c r="F32" t="n">
-        <v>440.9976926800671</v>
+        <v>440.9976926800682</v>
       </c>
       <c r="G32" t="n">
-        <v>200.657017114999</v>
+        <v>200.6570171149988</v>
       </c>
       <c r="H32" t="n">
         <v>48.462258330295</v>
       </c>
       <c r="I32" t="n">
-        <v>70.71846950395482</v>
+        <v>48.462258330295</v>
       </c>
       <c r="J32" t="n">
-        <v>358.2428101986405</v>
+        <v>85.77863825653702</v>
       </c>
       <c r="K32" t="n">
-        <v>835.7418312765703</v>
+        <v>563.2776593344668</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.33450581557</v>
+        <v>992.5565568335992</v>
       </c>
       <c r="M32" t="n">
-        <v>1720.139650832611</v>
+        <v>1040.687664269365</v>
       </c>
       <c r="N32" t="n">
-        <v>1799.386792590257</v>
+        <v>1119.934806027011</v>
       </c>
       <c r="O32" t="n">
-        <v>1872.954058156139</v>
+        <v>1511.842061074061</v>
       </c>
       <c r="P32" t="n">
-        <v>2175.280373382945</v>
+        <v>1985.918220104852</v>
       </c>
       <c r="Q32" t="n">
-        <v>2325.410771705082</v>
+        <v>2307.798462230973</v>
       </c>
       <c r="R32" t="n">
         <v>2423.11291651475</v>
@@ -6728,22 +6728,22 @@
         <v>2423.11291651475</v>
       </c>
       <c r="T32" t="n">
-        <v>2376.294689441008</v>
+        <v>2376.294689441009</v>
       </c>
       <c r="U32" t="n">
-        <v>2296.688514451854</v>
+        <v>2296.688514451855</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.946301672134</v>
+        <v>2134.946301672135</v>
       </c>
       <c r="W32" t="n">
-        <v>1947.648432854074</v>
+        <v>1947.648432854075</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.855353699906</v>
+        <v>1740.855353699907</v>
       </c>
       <c r="Y32" t="n">
-        <v>1522.550559600083</v>
+        <v>1522.550559600084</v>
       </c>
     </row>
     <row r="33">
@@ -6762,64 +6762,64 @@
         <v>48.462258330295</v>
       </c>
       <c r="E33" t="n">
-        <v>48.462258330295</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="F33" t="n">
-        <v>48.462258330295</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="G33" t="n">
-        <v>48.462258330295</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="H33" t="n">
-        <v>48.462258330295</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="I33" t="n">
-        <v>48.462258330295</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="J33" t="n">
-        <v>48.462258330295</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="K33" t="n">
-        <v>140.5080242044834</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="L33" t="n">
-        <v>140.5080242044834</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="M33" t="n">
-        <v>140.5080242044834</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="N33" t="n">
-        <v>140.5080242044834</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="O33" t="n">
-        <v>263.2161499741894</v>
+        <v>76.10994958901914</v>
       </c>
       <c r="P33" t="n">
-        <v>263.2161499741894</v>
+        <v>192.7913747535959</v>
       </c>
       <c r="Q33" t="n">
-        <v>263.2161499741894</v>
+        <v>236.0991512163594</v>
       </c>
       <c r="R33" t="n">
-        <v>263.2161499741894</v>
+        <v>236.0991512163594</v>
       </c>
       <c r="S33" t="n">
-        <v>263.2161499741894</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="T33" t="n">
-        <v>250.9030256651365</v>
+        <v>250.9030256651361</v>
       </c>
       <c r="U33" t="n">
-        <v>207.6638188239219</v>
+        <v>207.6638188239216</v>
       </c>
       <c r="V33" t="n">
-        <v>154.5052575965948</v>
+        <v>154.5052575965946</v>
       </c>
       <c r="W33" t="n">
-        <v>88.42645015424375</v>
+        <v>88.42645015424358</v>
       </c>
       <c r="X33" t="n">
-        <v>65.74652335637725</v>
+        <v>65.74652335637717</v>
       </c>
       <c r="Y33" t="n">
         <v>48.462258330295</v>
@@ -6844,64 +6844,64 @@
         <v>48.462258330295</v>
       </c>
       <c r="F34" t="n">
-        <v>70.76581219404372</v>
+        <v>48.462258330295</v>
       </c>
       <c r="G34" t="n">
-        <v>70.76581219404372</v>
+        <v>54.88521643514732</v>
       </c>
       <c r="H34" t="n">
-        <v>70.76581219404372</v>
+        <v>54.88521643514732</v>
       </c>
       <c r="I34" t="n">
-        <v>108.1398764184582</v>
+        <v>54.88521643514732</v>
       </c>
       <c r="J34" t="n">
-        <v>194.0949255234467</v>
+        <v>54.88521643514732</v>
       </c>
       <c r="K34" t="n">
-        <v>194.0949255234467</v>
+        <v>54.88521643514732</v>
       </c>
       <c r="L34" t="n">
-        <v>405.8914621712485</v>
+        <v>152.5341113088683</v>
       </c>
       <c r="M34" t="n">
-        <v>405.8914621712485</v>
+        <v>152.5341113088683</v>
       </c>
       <c r="N34" t="n">
-        <v>405.8914621712485</v>
+        <v>256.9812751914425</v>
       </c>
       <c r="O34" t="n">
-        <v>405.8914621712485</v>
+        <v>350.0618160880314</v>
       </c>
       <c r="P34" t="n">
-        <v>405.8914621712485</v>
+        <v>370.2851323061605</v>
       </c>
       <c r="Q34" t="n">
-        <v>559.2440973896785</v>
+        <v>523.6377675245906</v>
       </c>
       <c r="R34" t="n">
-        <v>559.2440973896785</v>
+        <v>559.2440973896779</v>
       </c>
       <c r="S34" t="n">
-        <v>524.8852341847947</v>
+        <v>524.8852341847943</v>
       </c>
       <c r="T34" t="n">
-        <v>467.9519515535721</v>
+        <v>467.9519515535717</v>
       </c>
       <c r="U34" t="n">
-        <v>356.0116492295057</v>
+        <v>356.0116492295053</v>
       </c>
       <c r="V34" t="n">
-        <v>270.5134061122673</v>
+        <v>270.5134061122669</v>
       </c>
       <c r="W34" t="n">
-        <v>159.5940659540053</v>
+        <v>159.594065954005</v>
       </c>
       <c r="X34" t="n">
-        <v>103.5786631737199</v>
+        <v>103.5786631737197</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.78056569033592</v>
+        <v>56.78056569033583</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1027.066278873633</v>
+        <v>1027.066278873639</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607656</v>
+        <v>864.529882260771</v>
       </c>
       <c r="D35" t="n">
-        <v>711.1032795423143</v>
+        <v>711.1032795423189</v>
       </c>
       <c r="E35" t="n">
-        <v>535.7149217027463</v>
+        <v>535.7149217027501</v>
       </c>
       <c r="F35" t="n">
-        <v>340.9610930672417</v>
+        <v>340.9610930672447</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7807182321592</v>
+        <v>144.7807182321603</v>
       </c>
       <c r="H35" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2839820965609</v>
+        <v>102.2839820965603</v>
       </c>
       <c r="J35" t="n">
-        <v>433.0898335367061</v>
+        <v>215.4624898102458</v>
       </c>
       <c r="K35" t="n">
-        <v>536.6952193810063</v>
+        <v>319.0678756545452</v>
       </c>
       <c r="L35" t="n">
-        <v>643.4754883031532</v>
+        <v>319.0678756545452</v>
       </c>
       <c r="M35" t="n">
-        <v>1098.210457998992</v>
+        <v>773.8028453503869</v>
       </c>
       <c r="N35" t="n">
-        <v>1220.739110502098</v>
+        <v>773.8028453503869</v>
       </c>
       <c r="O35" t="n">
-        <v>1337.58788681344</v>
+        <v>1228.537815046229</v>
       </c>
       <c r="P35" t="n">
-        <v>1358.324174045295</v>
+        <v>1331.740547405779</v>
       </c>
       <c r="Q35" t="n">
-        <v>1723.485926916876</v>
+        <v>1696.90230027736</v>
       </c>
       <c r="R35" t="n">
-        <v>1794.031498126617</v>
+        <v>1794.031498126629</v>
       </c>
       <c r="S35" t="n">
-        <v>1837.313008872077</v>
+        <v>1837.313008872088</v>
       </c>
       <c r="T35" t="n">
-        <v>1834.655082528321</v>
+        <v>1834.655082528332</v>
       </c>
       <c r="U35" t="n">
-        <v>1799.209208269153</v>
+        <v>1799.209208269163</v>
       </c>
       <c r="V35" t="n">
-        <v>1681.627296219419</v>
+        <v>1681.627296219429</v>
       </c>
       <c r="W35" t="n">
-        <v>1538.489728131345</v>
+        <v>1538.489728131354</v>
       </c>
       <c r="X35" t="n">
-        <v>1375.856949707164</v>
+        <v>1375.856949707172</v>
       </c>
       <c r="Y35" t="n">
-        <v>1201.712456337327</v>
+        <v>1201.712456337334</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="C36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="D36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="E36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="F36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="G36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="H36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="J36" t="n">
-        <v>67.66302738714722</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="K36" t="n">
-        <v>67.66302738714722</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="L36" t="n">
-        <v>67.66302738714722</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="M36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="N36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="O36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="P36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="R36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="S36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="T36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="U36" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="V36" t="n">
-        <v>58.66476688980634</v>
+        <v>58.6647668898074</v>
       </c>
       <c r="W36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="X36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="Y36" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="C37" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="D37" t="n">
-        <v>48.34994269995466</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="E37" t="n">
-        <v>48.34994269995466</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="F37" t="n">
-        <v>48.34994269995466</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="G37" t="n">
-        <v>98.05441155026642</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="H37" t="n">
-        <v>98.05441155026642</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I37" t="n">
-        <v>98.05441155026642</v>
+        <v>98.95871867280849</v>
       </c>
       <c r="J37" t="n">
-        <v>98.05441155026642</v>
+        <v>98.95871867280849</v>
       </c>
       <c r="K37" t="n">
-        <v>98.05441155026642</v>
+        <v>98.95871867280849</v>
       </c>
       <c r="L37" t="n">
-        <v>98.05441155026642</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="M37" t="n">
-        <v>98.05441155026642</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="N37" t="n">
-        <v>98.05441155026642</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="O37" t="n">
-        <v>98.05441155026642</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="P37" t="n">
-        <v>230.2827353736299</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="Q37" t="n">
-        <v>230.2827353736299</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="R37" t="n">
-        <v>230.2827353736299</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="S37" t="n">
-        <v>239.8891242919829</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1161423907465</v>
+        <v>227.1161423907509</v>
       </c>
       <c r="U37" t="n">
-        <v>159.3361407966663</v>
+        <v>159.3361407966699</v>
       </c>
       <c r="V37" t="n">
-        <v>117.9981984094141</v>
+        <v>117.9981984094168</v>
       </c>
       <c r="W37" t="n">
-        <v>51.23915898113837</v>
+        <v>51.23915898114026</v>
       </c>
       <c r="X37" t="n">
-        <v>39.38405693083929</v>
+        <v>39.38405693084035</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1027.066278873633</v>
+        <v>1027.066278873639</v>
       </c>
       <c r="C38" t="n">
-        <v>864.5298822607658</v>
+        <v>864.5298822607703</v>
       </c>
       <c r="D38" t="n">
-        <v>711.1032795423146</v>
+        <v>711.1032795423181</v>
       </c>
       <c r="E38" t="n">
-        <v>535.7149217027466</v>
+        <v>535.7149217027493</v>
       </c>
       <c r="F38" t="n">
-        <v>340.961093067242</v>
+        <v>340.961093067244</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7807182321592</v>
+        <v>144.7807182321603</v>
       </c>
       <c r="H38" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2839820965609</v>
+        <v>102.2839820965603</v>
       </c>
       <c r="J38" t="n">
-        <v>215.4624898102471</v>
+        <v>433.0898335367047</v>
       </c>
       <c r="K38" t="n">
-        <v>495.1149518691861</v>
+        <v>433.0898335367047</v>
       </c>
       <c r="L38" t="n">
-        <v>949.8499215650252</v>
+        <v>539.8701024588507</v>
       </c>
       <c r="M38" t="n">
-        <v>1070.162503526235</v>
+        <v>660.1826844200593</v>
       </c>
       <c r="N38" t="n">
-        <v>1070.162503526235</v>
+        <v>853.8241368276972</v>
       </c>
       <c r="O38" t="n">
-        <v>1524.897473222074</v>
+        <v>1308.559106523539</v>
       </c>
       <c r="P38" t="n">
-        <v>1628.100205581625</v>
+        <v>1763.294076219381</v>
       </c>
       <c r="Q38" t="n">
-        <v>1720.012565473909</v>
+        <v>1763.294076219381</v>
       </c>
       <c r="R38" t="n">
-        <v>1794.031498126617</v>
+        <v>1837.313008872088</v>
       </c>
       <c r="S38" t="n">
-        <v>1837.313008872076</v>
+        <v>1837.313008872088</v>
       </c>
       <c r="T38" t="n">
-        <v>1834.655082528321</v>
+        <v>1834.655082528332</v>
       </c>
       <c r="U38" t="n">
-        <v>1799.209208269153</v>
+        <v>1799.209208269162</v>
       </c>
       <c r="V38" t="n">
-        <v>1681.627296219419</v>
+        <v>1681.627296219428</v>
       </c>
       <c r="W38" t="n">
-        <v>1538.489728131345</v>
+        <v>1538.489728131353</v>
       </c>
       <c r="X38" t="n">
-        <v>1375.856949707164</v>
+        <v>1375.856949707171</v>
       </c>
       <c r="Y38" t="n">
-        <v>1201.712456337327</v>
+        <v>1201.712456337333</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="C39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="D39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="E39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="F39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="G39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="H39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="J39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="K39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="L39" t="n">
-        <v>36.74626017744153</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="M39" t="n">
-        <v>36.74626017744153</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="N39" t="n">
-        <v>36.74626017744153</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="O39" t="n">
-        <v>67.66302738714722</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="P39" t="n">
-        <v>67.66302738714722</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.66302738714722</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="R39" t="n">
-        <v>67.66302738714722</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="S39" t="n">
-        <v>67.66302738714722</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="T39" t="n">
-        <v>67.66302738714722</v>
+        <v>66.76026326676475</v>
       </c>
       <c r="U39" t="n">
-        <v>67.66302738714722</v>
+        <v>67.6630273871491</v>
       </c>
       <c r="V39" t="n">
-        <v>58.66476688980634</v>
+        <v>58.6647668898074</v>
       </c>
       <c r="W39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="X39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="Y39" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="C40" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="D40" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="E40" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="F40" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="G40" t="n">
-        <v>36.74626017744153</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="H40" t="n">
-        <v>36.74626017744153</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="I40" t="n">
-        <v>36.74626017744153</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="J40" t="n">
-        <v>165.9828200278896</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="K40" t="n">
-        <v>165.9828200278896</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="L40" t="n">
-        <v>239.8891242919829</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="M40" t="n">
-        <v>239.8891242919829</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="N40" t="n">
-        <v>239.8891242919829</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="O40" t="n">
-        <v>239.8891242919829</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="P40" t="n">
-        <v>239.8891242919829</v>
+        <v>86.45072902775271</v>
       </c>
       <c r="Q40" t="n">
-        <v>239.8891242919829</v>
+        <v>198.9884875594753</v>
       </c>
       <c r="R40" t="n">
-        <v>239.8891242919829</v>
+        <v>230.2827353736359</v>
       </c>
       <c r="S40" t="n">
-        <v>239.8891242919829</v>
+        <v>239.8891242919881</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1161423907465</v>
+        <v>227.1161423907509</v>
       </c>
       <c r="U40" t="n">
-        <v>159.3361407966663</v>
+        <v>159.3361407966699</v>
       </c>
       <c r="V40" t="n">
-        <v>117.9981984094141</v>
+        <v>117.9981984094168</v>
       </c>
       <c r="W40" t="n">
-        <v>51.23915898113837</v>
+        <v>51.23915898114026</v>
       </c>
       <c r="X40" t="n">
-        <v>39.38405693083929</v>
+        <v>39.38405693084035</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1027.066278873634</v>
+        <v>1027.066278873638</v>
       </c>
       <c r="C41" t="n">
-        <v>864.5298822607668</v>
+        <v>864.52988226077</v>
       </c>
       <c r="D41" t="n">
-        <v>711.1032795423157</v>
+        <v>711.103279542318</v>
       </c>
       <c r="E41" t="n">
-        <v>535.7149217027478</v>
+        <v>535.7149217027491</v>
       </c>
       <c r="F41" t="n">
-        <v>340.9610930672434</v>
+        <v>340.9610930672438</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7807182321591</v>
+        <v>144.7807182321602</v>
       </c>
       <c r="H41" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I41" t="n">
-        <v>36.74626017744153</v>
+        <v>102.2839820965603</v>
       </c>
       <c r="J41" t="n">
-        <v>367.5521116175868</v>
+        <v>215.4624898102458</v>
       </c>
       <c r="K41" t="n">
-        <v>822.2870813134259</v>
+        <v>215.4624898102458</v>
       </c>
       <c r="L41" t="n">
-        <v>929.0673502355729</v>
+        <v>670.1974595060876</v>
       </c>
       <c r="M41" t="n">
-        <v>1383.802319931412</v>
+        <v>790.5100414672962</v>
       </c>
       <c r="N41" t="n">
-        <v>1506.330972434518</v>
+        <v>1245.245011163138</v>
       </c>
       <c r="O41" t="n">
-        <v>1506.330972434518</v>
+        <v>1362.093787474479</v>
       </c>
       <c r="P41" t="n">
-        <v>1609.533704794069</v>
+        <v>1543.52317320511</v>
       </c>
       <c r="Q41" t="n">
-        <v>1763.294076219369</v>
+        <v>1635.435533097394</v>
       </c>
       <c r="R41" t="n">
-        <v>1837.313008872077</v>
+        <v>1794.031498126629</v>
       </c>
       <c r="S41" t="n">
-        <v>1837.313008872077</v>
+        <v>1837.313008872088</v>
       </c>
       <c r="T41" t="n">
-        <v>1834.655082528322</v>
+        <v>1834.655082528331</v>
       </c>
       <c r="U41" t="n">
-        <v>1799.209208269153</v>
+        <v>1799.209208269162</v>
       </c>
       <c r="V41" t="n">
-        <v>1681.62729621942</v>
+        <v>1681.627296219428</v>
       </c>
       <c r="W41" t="n">
-        <v>1538.489728131346</v>
+        <v>1538.489728131353</v>
       </c>
       <c r="X41" t="n">
-        <v>1375.856949707165</v>
+        <v>1375.856949707171</v>
       </c>
       <c r="Y41" t="n">
-        <v>1201.712456337328</v>
+        <v>1201.712456337333</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="C42" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="D42" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="E42" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="F42" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="G42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="H42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="J42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="K42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="L42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="M42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="N42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="O42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="P42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="R42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="S42" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="T42" t="n">
-        <v>67.66302738714698</v>
+        <v>67.66302738714904</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714698</v>
+        <v>67.66302738714904</v>
       </c>
       <c r="V42" t="n">
-        <v>58.66476688980622</v>
+        <v>58.66476688980737</v>
       </c>
       <c r="W42" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="X42" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="C43" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="D43" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="E43" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="F43" t="n">
-        <v>98.95871867280167</v>
+        <v>102.3313247866492</v>
       </c>
       <c r="G43" t="n">
-        <v>98.95871867280167</v>
+        <v>102.3313247866492</v>
       </c>
       <c r="H43" t="n">
-        <v>98.95871867280167</v>
+        <v>102.3313247866492</v>
       </c>
       <c r="I43" t="n">
-        <v>98.95871867280167</v>
+        <v>102.3313247866492</v>
       </c>
       <c r="J43" t="n">
-        <v>98.95871867280167</v>
+        <v>102.3313247866492</v>
       </c>
       <c r="K43" t="n">
-        <v>98.95871867280167</v>
+        <v>102.3313247866492</v>
       </c>
       <c r="L43" t="n">
-        <v>239.8891242919822</v>
+        <v>102.3313247866492</v>
       </c>
       <c r="M43" t="n">
-        <v>239.8891242919822</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="N43" t="n">
-        <v>239.8891242919822</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="O43" t="n">
-        <v>239.8891242919822</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="P43" t="n">
-        <v>239.8891242919822</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="Q43" t="n">
-        <v>239.8891242919822</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="R43" t="n">
-        <v>239.8891242919822</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="S43" t="n">
-        <v>239.8891242919822</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1161423907459</v>
+        <v>227.1161423907508</v>
       </c>
       <c r="U43" t="n">
-        <v>159.3361407966659</v>
+        <v>159.3361407966698</v>
       </c>
       <c r="V43" t="n">
-        <v>117.9981984094138</v>
+        <v>117.9981984094167</v>
       </c>
       <c r="W43" t="n">
-        <v>51.23915898113814</v>
+        <v>51.23915898114021</v>
       </c>
       <c r="X43" t="n">
-        <v>39.38405693083917</v>
+        <v>39.38405693084032</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1027.066278873632</v>
+        <v>1027.066278873639</v>
       </c>
       <c r="C44" t="n">
-        <v>864.5298822607651</v>
+        <v>864.5298822607706</v>
       </c>
       <c r="D44" t="n">
-        <v>711.103279542314</v>
+        <v>711.1032795423185</v>
       </c>
       <c r="E44" t="n">
-        <v>535.7149217027461</v>
+        <v>535.7149217027497</v>
       </c>
       <c r="F44" t="n">
-        <v>340.9610930672417</v>
+        <v>340.9610930672447</v>
       </c>
       <c r="G44" t="n">
-        <v>144.7807182321591</v>
+        <v>144.780718232162</v>
       </c>
       <c r="H44" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I44" t="n">
-        <v>102.283982096561</v>
+        <v>102.2839820965603</v>
       </c>
       <c r="J44" t="n">
-        <v>433.0898335367063</v>
+        <v>433.0898335367048</v>
       </c>
       <c r="K44" t="n">
-        <v>628.0908087353301</v>
+        <v>536.6952193810042</v>
       </c>
       <c r="L44" t="n">
-        <v>628.0908087353301</v>
+        <v>536.6952193810042</v>
       </c>
       <c r="M44" t="n">
-        <v>748.4033906965396</v>
+        <v>536.6952193810042</v>
       </c>
       <c r="N44" t="n">
-        <v>870.9320431996452</v>
+        <v>659.2238718841089</v>
       </c>
       <c r="O44" t="n">
-        <v>1325.667012895484</v>
+        <v>815.5388105299714</v>
       </c>
       <c r="P44" t="n">
-        <v>1428.869745255036</v>
+        <v>1270.273780225813</v>
       </c>
       <c r="Q44" t="n">
-        <v>1794.031498126617</v>
+        <v>1635.435533097394</v>
       </c>
       <c r="R44" t="n">
-        <v>1794.031498126617</v>
+        <v>1794.031498126629</v>
       </c>
       <c r="S44" t="n">
-        <v>1837.313008872077</v>
+        <v>1837.313008872088</v>
       </c>
       <c r="T44" t="n">
-        <v>1834.655082528322</v>
+        <v>1834.655082528332</v>
       </c>
       <c r="U44" t="n">
-        <v>1799.209208269153</v>
+        <v>1799.209208269163</v>
       </c>
       <c r="V44" t="n">
-        <v>1681.62729621942</v>
+        <v>1681.627296219428</v>
       </c>
       <c r="W44" t="n">
-        <v>1538.489728131346</v>
+        <v>1538.489728131354</v>
       </c>
       <c r="X44" t="n">
-        <v>1375.856949707163</v>
+        <v>1375.856949707171</v>
       </c>
       <c r="Y44" t="n">
-        <v>1201.712456337326</v>
+        <v>1201.712456337334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="C45" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="D45" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="E45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="F45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="G45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="H45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="J45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="K45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="L45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="M45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="N45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="O45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="P45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.66302738714698</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="R45" t="n">
-        <v>67.66302738714698</v>
+        <v>67.66302738714904</v>
       </c>
       <c r="S45" t="n">
-        <v>67.66302738714698</v>
+        <v>67.66302738714904</v>
       </c>
       <c r="T45" t="n">
-        <v>67.66302738714698</v>
+        <v>67.66302738714904</v>
       </c>
       <c r="U45" t="n">
-        <v>67.66302738714698</v>
+        <v>67.66302738714904</v>
       </c>
       <c r="V45" t="n">
-        <v>58.66476688980622</v>
+        <v>58.66476688980737</v>
       </c>
       <c r="W45" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="X45" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="Y45" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="C46" t="n">
-        <v>85.5370029823786</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="D46" t="n">
-        <v>85.5370029823786</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="E46" t="n">
-        <v>101.0461755231809</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="F46" t="n">
-        <v>101.0461755231809</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="G46" t="n">
-        <v>101.0461755231809</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="H46" t="n">
-        <v>101.0461755231809</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="I46" t="n">
-        <v>101.0461755231809</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="J46" t="n">
-        <v>230.2827353736291</v>
+        <v>36.74626017744176</v>
       </c>
       <c r="K46" t="n">
-        <v>230.2827353736291</v>
+        <v>174.8823931163255</v>
       </c>
       <c r="L46" t="n">
-        <v>230.2827353736291</v>
+        <v>174.8823931163255</v>
       </c>
       <c r="M46" t="n">
-        <v>230.2827353736291</v>
+        <v>174.8823931163255</v>
       </c>
       <c r="N46" t="n">
-        <v>230.2827353736291</v>
+        <v>174.8823931163255</v>
       </c>
       <c r="O46" t="n">
-        <v>230.2827353736291</v>
+        <v>174.8823931163255</v>
       </c>
       <c r="P46" t="n">
-        <v>230.2827353736291</v>
+        <v>174.8823931163255</v>
       </c>
       <c r="Q46" t="n">
-        <v>230.2827353736291</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="R46" t="n">
-        <v>230.2827353736291</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919822</v>
+        <v>239.8891242919879</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1161423907459</v>
+        <v>227.1161423907508</v>
       </c>
       <c r="U46" t="n">
-        <v>159.3361407966659</v>
+        <v>159.3361407966698</v>
       </c>
       <c r="V46" t="n">
-        <v>117.9981984094138</v>
+        <v>117.9981984094167</v>
       </c>
       <c r="W46" t="n">
-        <v>51.23915898113814</v>
+        <v>51.23915898114021</v>
       </c>
       <c r="X46" t="n">
-        <v>39.38405693083917</v>
+        <v>39.38405693084032</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.74626017744153</v>
+        <v>36.74626017744176</v>
       </c>
     </row>
   </sheetData>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>542.9595789155856</v>
@@ -9884,16 +9884,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N26" t="n">
-        <v>79.36221868839908</v>
+        <v>268.0918841740128</v>
       </c>
       <c r="O26" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>112.9582042322147</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.37982331760023</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>52.05064111562936</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>49.53708892351374</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>55.62466529233116</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>78.15265312299758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10033,13 +10033,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>77.67194102076726</v>
       </c>
       <c r="L28" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M28" t="n">
-        <v>16.97924163318602</v>
+        <v>76.24414745277535</v>
       </c>
       <c r="N28" t="n">
         <v>67.98250497112167</v>
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>175.5085323082534</v>
+        <v>83.63942497583898</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>14.87599620612854</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>542.9595789155856</v>
@@ -10121,13 +10121,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N29" t="n">
-        <v>389.3417410455107</v>
+        <v>158.3623570569549</v>
       </c>
       <c r="O29" t="n">
-        <v>99.17432145262867</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>44.85432453608092</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>49.53708892351376</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.30560267295</v>
       </c>
       <c r="R30" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,16 +10267,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L31" t="n">
-        <v>74.84944336390265</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M31" t="n">
-        <v>23.69600793335134</v>
+        <v>76.24414745277537</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10285,10 +10285,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>175.5085323082534</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236959</v>
+        <v>140.5749765272726</v>
       </c>
       <c r="K32" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>340.4989054164771</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M32" t="n">
-        <v>584.3675935406823</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P32" t="n">
         <v>418.3383206229274</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>159.959241330691</v>
+        <v>66.98372024565222</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44.85432453608092</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>34.21620827668144</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>77.67194102076728</v>
       </c>
       <c r="L34" t="n">
-        <v>211.2171120040207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>76.24414745277537</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>83.63942497583898</v>
+        <v>104.0670171153633</v>
       </c>
       <c r="Q34" t="n">
         <v>84.9458458910769</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>35.61331013210776</v>
       </c>
       <c r="M35" t="n">
-        <v>337.800391651141</v>
+        <v>337.8003916511447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>341.2991852368696</v>
       </c>
       <c r="P35" t="n">
-        <v>133.9039489108565</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>23.3437022187499</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>77.67194102076728</v>
       </c>
       <c r="L37" t="n">
-        <v>74.84944336390265</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>79.46394233070276</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>344.7161728236031</v>
+        <v>25.4868112025536</v>
       </c>
       <c r="L38" t="n">
-        <v>351.4693947209012</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>71.83111101467996</v>
       </c>
       <c r="O38" t="n">
-        <v>341.299185236866</v>
+        <v>341.2991852368696</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>355.0830680164556</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>79.46394233070276</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>354.6763473247865</v>
+        <v>112.5514835405493</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>351.4693947209047</v>
       </c>
       <c r="M41" t="n">
-        <v>337.8003916511409</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>335.5619365583202</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>79.01682158695036</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.4727389222378</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.64598682336535</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11215,10 +11215,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>77.67194102076728</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11230,13 +11230,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>38.58319257418242</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>83.63942497583898</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>92.31877712557929</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>108.0317028373488</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>36.05252383144233</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>341.2991852368658</v>
+        <v>39.86481043891072</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>355.0830680164556</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.63942497583898</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.5285412724726</v>
+        <v>174.5285412724725</v>
       </c>
       <c r="C11" t="n">
-        <v>16.08988131948686</v>
+        <v>16.08988131948652</v>
       </c>
       <c r="D11" t="n">
-        <v>7.071185364014838</v>
+        <v>153.5211622746822</v>
       </c>
       <c r="E11" t="n">
-        <v>175.2632998445879</v>
+        <v>175.2632998445877</v>
       </c>
       <c r="F11" t="n">
-        <v>183.4768947823009</v>
+        <v>194.4351159325649</v>
       </c>
       <c r="G11" t="n">
-        <v>49.39741975948007</v>
+        <v>100.4595391871645</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5829390575861</v>
+        <v>108.582939057586</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663733029</v>
+        <v>4.260172663732887</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999239</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>118.0349185126516</v>
       </c>
       <c r="W11" t="n">
-        <v>143.3350179906087</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>162.6352762233553</v>
+        <v>162.6352762233551</v>
       </c>
       <c r="Y11" t="n">
-        <v>174.031874019554</v>
+        <v>27.58189710888618</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.5285412724726</v>
+        <v>164.7155338658818</v>
       </c>
       <c r="C14" t="n">
-        <v>162.5398582301544</v>
+        <v>16.08988131948652</v>
       </c>
       <c r="D14" t="n">
-        <v>37.09337797747624</v>
+        <v>153.5211622746822</v>
       </c>
       <c r="E14" t="n">
-        <v>175.2632998445879</v>
+        <v>175.2632998445877</v>
       </c>
       <c r="F14" t="n">
-        <v>194.4351159325651</v>
+        <v>194.4351159325649</v>
       </c>
       <c r="G14" t="n">
-        <v>195.8473966701476</v>
+        <v>195.8473966701474</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5829390575861</v>
+        <v>108.582939057586</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>36.72024109999224</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3350179906087</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>16.18529931268776</v>
+        <v>162.6352762233551</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.58189710888652</v>
+        <v>27.58189710888618</v>
       </c>
     </row>
     <row r="15">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.985610820938189e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602358.1183077901</v>
+        <v>602358.1183077904</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602358.1183077901</v>
+        <v>602358.1183077904</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814677.4690159084</v>
+        <v>814677.4690159085</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814677.4690159087</v>
+        <v>814677.4690159089</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740411.9262376017</v>
+        <v>740411.9262376032</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740411.9262376017</v>
+        <v>740411.9262376032</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740411.9262376014</v>
+        <v>740411.9262376031</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740411.9262376016</v>
+        <v>740411.9262376031</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>650995.1367812087</v>
+      </c>
+      <c r="C2" t="n">
         <v>650995.1367812088</v>
-      </c>
-      <c r="C2" t="n">
-        <v>650995.1367812089</v>
       </c>
       <c r="D2" t="n">
         <v>650995.1367812089</v>
       </c>
       <c r="E2" t="n">
+        <v>568893.7784018022</v>
+      </c>
+      <c r="F2" t="n">
         <v>568893.7784018021</v>
-      </c>
-      <c r="F2" t="n">
-        <v>568893.7784018022</v>
       </c>
       <c r="G2" t="n">
         <v>652480.4514200547</v>
@@ -26335,10 +26335,10 @@
         <v>652480.4514200547</v>
       </c>
       <c r="J2" t="n">
+        <v>652480.451420055</v>
+      </c>
+      <c r="K2" t="n">
         <v>652480.4514200547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>652480.4514200548</v>
       </c>
       <c r="L2" t="n">
         <v>652480.4514200548</v>
@@ -26347,13 +26347,13 @@
         <v>652480.4514200547</v>
       </c>
       <c r="N2" t="n">
+        <v>652480.4514200548</v>
+      </c>
+      <c r="O2" t="n">
         <v>652480.4514200549</v>
       </c>
-      <c r="O2" t="n">
-        <v>652480.4514200543</v>
-      </c>
       <c r="P2" t="n">
-        <v>652480.4514200544</v>
+        <v>652480.4514200548</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320303.849971589</v>
+        <v>320303.8499715892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86866.35124606882</v>
+        <v>86866.35124606871</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172101.8825461392</v>
+        <v>172101.8825461393</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86866.35124606878</v>
+        <v>86866.35124606873</v>
       </c>
       <c r="M3" t="n">
-        <v>34974.95817814911</v>
+        <v>34974.95817814838</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51921.40132280767</v>
+        <v>51921.40132280777</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>337492.0798944827</v>
+        <v>337492.0798944829</v>
       </c>
       <c r="F4" t="n">
-        <v>337492.0798944827</v>
+        <v>337492.0798944829</v>
       </c>
       <c r="G4" t="n">
-        <v>393534.1149340968</v>
+        <v>393534.1149340969</v>
       </c>
       <c r="H4" t="n">
-        <v>393534.1149340968</v>
+        <v>393534.1149340969</v>
       </c>
       <c r="I4" t="n">
         <v>393534.1149340968</v>
@@ -26445,13 +26445,13 @@
         <v>401705.6227511127</v>
       </c>
       <c r="L4" t="n">
-        <v>401705.6227511126</v>
+        <v>401705.6227511128</v>
       </c>
       <c r="M4" t="n">
         <v>397296.6362691749</v>
       </c>
       <c r="N4" t="n">
-        <v>397296.6362691747</v>
+        <v>397296.6362691749</v>
       </c>
       <c r="O4" t="n">
         <v>397296.6362691749</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29852.47964145839</v>
+        <v>29852.47964145841</v>
       </c>
       <c r="F5" t="n">
-        <v>29852.47964145839</v>
+        <v>29852.47964145841</v>
       </c>
       <c r="G5" t="n">
-        <v>38980.93874509059</v>
+        <v>38980.93874509061</v>
       </c>
       <c r="H5" t="n">
-        <v>38980.9387450906</v>
+        <v>38980.93874509061</v>
       </c>
       <c r="I5" t="n">
-        <v>38980.9387450906</v>
+        <v>38980.93874509061</v>
       </c>
       <c r="J5" t="n">
         <v>54241.18391543764</v>
@@ -26497,19 +26497,19 @@
         <v>54241.18391543765</v>
       </c>
       <c r="L5" t="n">
-        <v>54241.18391543764</v>
+        <v>54241.18391543765</v>
       </c>
       <c r="M5" t="n">
-        <v>49012.41251811753</v>
+        <v>49012.41251811764</v>
       </c>
       <c r="N5" t="n">
-        <v>49012.41251811753</v>
+        <v>49012.41251811764</v>
       </c>
       <c r="O5" t="n">
-        <v>49012.41251811755</v>
+        <v>49012.41251811764</v>
       </c>
       <c r="P5" t="n">
-        <v>49012.41251811755</v>
+        <v>49012.41251811764</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180230.3715697746</v>
+        <v>180226.0029973073</v>
       </c>
       <c r="C6" t="n">
-        <v>180230.3715697747</v>
+        <v>180226.0029973074</v>
       </c>
       <c r="D6" t="n">
-        <v>180230.3715697747</v>
+        <v>180226.0029973075</v>
       </c>
       <c r="E6" t="n">
-        <v>-118754.6311057281</v>
+        <v>-119000.4742616643</v>
       </c>
       <c r="F6" t="n">
-        <v>201549.218865861</v>
+        <v>201303.3757099247</v>
       </c>
       <c r="G6" t="n">
         <v>133099.0464947984</v>
       </c>
       <c r="H6" t="n">
-        <v>219965.3977408671</v>
+        <v>219965.397740867</v>
       </c>
       <c r="I6" t="n">
-        <v>219965.3977408673</v>
+        <v>219965.3977408672</v>
       </c>
       <c r="J6" t="n">
-        <v>24431.76220736515</v>
+        <v>24431.76220736538</v>
       </c>
       <c r="K6" t="n">
-        <v>196533.6447535044</v>
+        <v>196533.6447535043</v>
       </c>
       <c r="L6" t="n">
-        <v>109667.2935074358</v>
+        <v>109667.2935074356</v>
       </c>
       <c r="M6" t="n">
-        <v>171196.4444546132</v>
+        <v>171196.4444546138</v>
       </c>
       <c r="N6" t="n">
-        <v>206171.4026327626</v>
+        <v>206171.4026327623</v>
       </c>
       <c r="O6" t="n">
-        <v>154250.0013099542</v>
+        <v>154250.0013099546</v>
       </c>
       <c r="P6" t="n">
-        <v>206171.402632762</v>
+        <v>206171.4026327622</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F2" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="G2" t="n">
         <v>324.1575019079523</v>
       </c>
       <c r="H2" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="I2" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="J2" t="n">
         <v>173.4846907110956</v>
@@ -26713,19 +26713,19 @@
         <v>173.4846907110956</v>
       </c>
       <c r="L2" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="N2" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="O2" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="P2" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="F4" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="G4" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="I4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="J4" t="n">
         <v>605.7782291286874</v>
@@ -26820,16 +26820,16 @@
         <v>605.7782291286875</v>
       </c>
       <c r="M4" t="n">
-        <v>459.3282522180192</v>
+        <v>459.328252218022</v>
       </c>
       <c r="N4" t="n">
-        <v>459.3282522180192</v>
+        <v>459.328252218022</v>
       </c>
       <c r="O4" t="n">
-        <v>459.3282522180192</v>
+        <v>459.328252218022</v>
       </c>
       <c r="P4" t="n">
-        <v>459.3282522180192</v>
+        <v>459.328252218022</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.582939057586</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.90175165350948</v>
+        <v>64.90175165350968</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.582939057586</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
-        <v>43.71869772268639</v>
+        <v>43.71869772268548</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350959</v>
+        <v>64.90175165350971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.3282522180198</v>
+        <v>459.3282522180197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.582939057586</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350948</v>
+        <v>64.90175165350968</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="D11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="E11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="G11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="H11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="I11" t="n">
         <v>151.0036693235604</v>
       </c>
       <c r="J11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="K11" t="n">
-        <v>215.5745628503663</v>
+        <v>112.5514835405493</v>
       </c>
       <c r="L11" t="n">
-        <v>109.3445309366638</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="M11" t="n">
         <v>95.67552786690371</v>
       </c>
       <c r="N11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="O11" t="n">
-        <v>99.17432145262867</v>
+        <v>120.1526331280303</v>
       </c>
       <c r="P11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.5745628503663</v>
+        <v>124.3626208658184</v>
       </c>
       <c r="R11" t="n">
-        <v>148.5478851451057</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="S11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="12">
@@ -28184,13 +28184,13 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H12" t="n">
-        <v>96.24631459259479</v>
+        <v>131.5306665342038</v>
       </c>
       <c r="I12" t="n">
         <v>71.2645270077352</v>
       </c>
       <c r="J12" t="n">
-        <v>112.0039059477505</v>
+        <v>76.71955400614105</v>
       </c>
       <c r="K12" t="n">
         <v>66.98372024565222</v>
@@ -28223,13 +28223,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U12" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V12" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W12" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28248,10 +28248,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>215.5745628503663</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>173.0753981169088</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
         <v>150.4889240962943</v>
@@ -28260,7 +28260,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9968542415478</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="H13" t="n">
         <v>155.7011408377324</v>
@@ -28269,16 +28269,16 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J13" t="n">
-        <v>86.66140878686465</v>
+        <v>113.9194810603127</v>
       </c>
       <c r="K13" t="n">
-        <v>215.5745628503663</v>
+        <v>77.67194102076728</v>
       </c>
       <c r="L13" t="n">
         <v>74.84944336390265</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24414745277537</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="N13" t="n">
         <v>67.98250497112167</v>
@@ -28296,25 +28296,25 @@
         <v>137.5187009483812</v>
       </c>
       <c r="S13" t="n">
-        <v>215.5745628503663</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="C14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="D14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="E14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="G14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="H14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="I14" t="n">
-        <v>151.0036693235604</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="J14" t="n">
         <v>102.8816634704624</v>
       </c>
       <c r="K14" t="n">
-        <v>215.5745628503663</v>
+        <v>112.5514835405493</v>
       </c>
       <c r="L14" t="n">
         <v>109.3445309366638</v>
       </c>
       <c r="M14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="N14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="O14" t="n">
-        <v>99.17432145262867</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="P14" t="n">
-        <v>215.5745628503663</v>
+        <v>196.6955080506389</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.4795225972303</v>
+        <v>124.3626208658184</v>
       </c>
       <c r="R14" t="n">
-        <v>142.436789794683</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="S14" t="n">
-        <v>215.5745628503663</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="15">
@@ -28421,13 +28421,13 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H15" t="n">
-        <v>96.24631459259479</v>
+        <v>131.5306665342038</v>
       </c>
       <c r="I15" t="n">
         <v>71.2645270077352</v>
       </c>
       <c r="J15" t="n">
-        <v>112.0039059477505</v>
+        <v>76.71955400614105</v>
       </c>
       <c r="K15" t="n">
         <v>66.98372024565222</v>
@@ -28460,13 +28460,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U15" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V15" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W15" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -28521,13 +28521,13 @@
         <v>67.98250497112167</v>
       </c>
       <c r="O16" t="n">
-        <v>182.5844606265797</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="P16" t="n">
         <v>83.63942497583898</v>
       </c>
       <c r="Q16" t="n">
-        <v>215.5745628503663</v>
+        <v>182.5844606265787</v>
       </c>
       <c r="R16" t="n">
         <v>137.5187009483812</v>
@@ -28536,22 +28536,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T16" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U16" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V16" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W16" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X16" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="17">
@@ -28588,16 +28588,16 @@
         <v>102.8816634704624</v>
       </c>
       <c r="K17" t="n">
-        <v>259.0014604512169</v>
+        <v>112.5514835405493</v>
       </c>
       <c r="L17" t="n">
-        <v>109.3445309366638</v>
+        <v>255.7945078473315</v>
       </c>
       <c r="M17" t="n">
-        <v>95.67552786690371</v>
+        <v>242.1255047775714</v>
       </c>
       <c r="N17" t="n">
-        <v>239.8870496847468</v>
+        <v>93.43707277407934</v>
       </c>
       <c r="O17" t="n">
         <v>99.17432145262867</v>
@@ -28606,19 +28606,19 @@
         <v>112.9582042322147</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.3626208658184</v>
+        <v>270.8125977764861</v>
       </c>
       <c r="R17" t="n">
         <v>142.436789794683</v>
       </c>
       <c r="S17" t="n">
-        <v>284.2820093967146</v>
+        <v>314.0174968374939</v>
       </c>
       <c r="T17" t="n">
-        <v>324.1575019079523</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U17" t="n">
-        <v>324.1575019079523</v>
+        <v>252.2948039503587</v>
       </c>
       <c r="V17" t="n">
         <v>324.1575019079523</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="C20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="D20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="E20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="F20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="G20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="H20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4536462342279</v>
+        <v>151.0036693235604</v>
       </c>
       <c r="J20" t="n">
         <v>102.8816634704624</v>
@@ -28831,43 +28831,43 @@
         <v>109.3445309366638</v>
       </c>
       <c r="M20" t="n">
-        <v>95.67552786690371</v>
+        <v>236.208333993302</v>
       </c>
       <c r="N20" t="n">
-        <v>93.43707277407934</v>
+        <v>239.8870496847471</v>
       </c>
       <c r="O20" t="n">
-        <v>245.6242983632962</v>
+        <v>99.17432145262867</v>
       </c>
       <c r="P20" t="n">
-        <v>112.9582042322147</v>
+        <v>259.4081811428824</v>
       </c>
       <c r="Q20" t="n">
         <v>124.3626208658184</v>
       </c>
       <c r="R20" t="n">
-        <v>142.436789794683</v>
+        <v>288.8867667053506</v>
       </c>
       <c r="S20" t="n">
-        <v>284.2820093967146</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T20" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U20" t="n">
-        <v>324.1575019079524</v>
+        <v>252.2948039503587</v>
       </c>
       <c r="V20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="W20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="X20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="Y20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
     </row>
     <row r="21">
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="C23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="D23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="E23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="G23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="H23" t="n">
         <v>324.1575019079524</v>
       </c>
       <c r="I23" t="n">
-        <v>151.0036693235604</v>
+        <v>297.4536462342281</v>
       </c>
       <c r="J23" t="n">
-        <v>102.8816634704624</v>
+        <v>243.4144695968608</v>
       </c>
       <c r="K23" t="n">
-        <v>259.0014604512169</v>
+        <v>112.5514835405493</v>
       </c>
       <c r="L23" t="n">
         <v>109.3445309366638</v>
@@ -29077,34 +29077,34 @@
         <v>99.17432145262867</v>
       </c>
       <c r="P23" t="n">
-        <v>149.1682439647599</v>
+        <v>112.9582042322147</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.3626208658184</v>
+        <v>270.8125977764861</v>
       </c>
       <c r="R23" t="n">
-        <v>288.8867667053505</v>
+        <v>142.436789794683</v>
       </c>
       <c r="S23" t="n">
-        <v>319.9346676217632</v>
+        <v>319.9346676217633</v>
       </c>
       <c r="T23" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U23" t="n">
         <v>252.2948039503587</v>
       </c>
       <c r="V23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="W23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="X23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="Y23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
     </row>
     <row r="24">
@@ -29293,16 +29293,16 @@
         <v>173.4846907110956</v>
       </c>
       <c r="I26" t="n">
-        <v>173.4846907110956</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J26" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>173.4846907110956</v>
+        <v>112.5514835405493</v>
       </c>
       <c r="L26" t="n">
-        <v>172.1631811497656</v>
+        <v>16.46049563746519</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29314,13 +29314,13 @@
         <v>173.4846907110956</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q26" t="n">
-        <v>104.9827975482182</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="R26" t="n">
-        <v>57.00544395980577</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S26" t="n">
         <v>173.4846907110956</v>
@@ -29375,28 +29375,28 @@
         <v>71.2645270077352</v>
       </c>
       <c r="J27" t="n">
-        <v>173.4846907110956</v>
+        <v>76.71955400614104</v>
       </c>
       <c r="K27" t="n">
         <v>66.98372024565219</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>52.05064111562936</v>
       </c>
       <c r="M27" t="n">
-        <v>165.0123107037466</v>
+        <v>44.8543245360809</v>
       </c>
       <c r="N27" t="n">
-        <v>34.21620827668141</v>
+        <v>127.1917293617198</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>55.62466529233116</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.15265312299758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>101.057477245434</v>
@@ -29451,34 +29451,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I28" t="n">
-        <v>135.7331106864345</v>
+        <v>141.8794589225369</v>
       </c>
       <c r="J28" t="n">
         <v>86.66140878686465</v>
       </c>
       <c r="K28" t="n">
-        <v>77.67194102076726</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>173.4846907110956</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>173.4846907110956</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>79.46394233070275</v>
-      </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.58303897530765</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="R28" t="n">
-        <v>137.5187009483811</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S28" t="n">
         <v>173.4846907110956</v>
@@ -29533,7 +29533,7 @@
         <v>173.4846907110956</v>
       </c>
       <c r="J29" t="n">
-        <v>88.00566726433389</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="K29" t="n">
         <v>173.4846907110956</v>
@@ -29542,13 +29542,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>117.0861634549089</v>
       </c>
       <c r="N29" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>99.17432145262867</v>
       </c>
       <c r="P29" t="n">
         <v>173.4846907110956</v>
@@ -29606,10 +29606,10 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H30" t="n">
-        <v>96.24631459259479</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="I30" t="n">
-        <v>173.4846907110956</v>
+        <v>71.2645270077352</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29621,22 +29621,22 @@
         <v>52.05064111562938</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>44.85432453608092</v>
       </c>
       <c r="N30" t="n">
-        <v>148.9191674459413</v>
+        <v>34.21620827668144</v>
       </c>
       <c r="O30" t="n">
-        <v>49.53708892351376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>55.62466529233118</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.15265312299758</v>
+        <v>81.53179720416699</v>
       </c>
       <c r="R30" t="n">
-        <v>41.87930649071696</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S30" t="n">
         <v>146.0937828749041</v>
@@ -29676,7 +29676,7 @@
         <v>173.4846907110956</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -29688,19 +29688,19 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I31" t="n">
+        <v>135.7331106864345</v>
+      </c>
+      <c r="J31" t="n">
+        <v>42.93429506732433</v>
+      </c>
+      <c r="K31" t="n">
         <v>173.4846907110956</v>
       </c>
-      <c r="J31" t="n">
-        <v>86.66140878686465</v>
-      </c>
-      <c r="K31" t="n">
-        <v>77.67194102076728</v>
-      </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>67.98250497112167</v>
@@ -29712,7 +29712,7 @@
         <v>173.4846907110956</v>
       </c>
       <c r="Q31" t="n">
-        <v>173.4846907110956</v>
+        <v>28.7924271513089</v>
       </c>
       <c r="R31" t="n">
         <v>137.5187009483812</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="D32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="E32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="F32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="G32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="H32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="I32" t="n">
-        <v>173.4846907110955</v>
+        <v>151.0036693235604</v>
       </c>
       <c r="J32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="L32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>144.2928081050506</v>
       </c>
       <c r="N32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="O32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="R32" t="n">
-        <v>155.6944791210869</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>145.5577298436975</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
@@ -29861,40 +29861,40 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>34.21620827668144</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4846907110955</v>
+        <v>49.53708892351376</v>
       </c>
       <c r="P33" t="n">
-        <v>55.62466529233118</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.15265312299758</v>
+        <v>121.8978818732637</v>
       </c>
       <c r="R33" t="n">
-        <v>101.057477245434</v>
+        <v>41.87930649071696</v>
       </c>
       <c r="S33" t="n">
-        <v>146.0937828749041</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -29916,64 +29916,64 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>173.4846907110955</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9968542415478</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="H34" t="n">
         <v>155.7011408377324</v>
       </c>
       <c r="I34" t="n">
-        <v>173.4846907110955</v>
+        <v>135.7331106864345</v>
       </c>
       <c r="J34" t="n">
-        <v>173.4846907110955</v>
+        <v>86.66140878686465</v>
       </c>
       <c r="K34" t="n">
-        <v>77.67194102076728</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>77.56822696372205</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>67.98250497112167</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="O34" t="n">
-        <v>79.46394233070276</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="R34" t="n">
-        <v>137.5187009483812</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="C35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="D35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="E35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="F35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="G35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="H35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="I35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="J35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="K35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="L35" t="n">
-        <v>217.2033884337819</v>
+        <v>73.73122080455607</v>
       </c>
       <c r="M35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="N35" t="n">
-        <v>217.2033884337819</v>
+        <v>93.43707277407934</v>
       </c>
       <c r="O35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="R35" t="n">
-        <v>213.6949425317954</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="S35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="U35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Y35" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
     <row r="36">
@@ -30086,7 +30086,7 @@
         <v>71.2645270077352</v>
       </c>
       <c r="J36" t="n">
-        <v>107.9486117937226</v>
+        <v>76.71955400614105</v>
       </c>
       <c r="K36" t="n">
         <v>66.98372024565222</v>
@@ -30095,7 +30095,7 @@
         <v>52.05064111562938</v>
       </c>
       <c r="M36" t="n">
-        <v>44.85432453608092</v>
+        <v>76.0833823236641</v>
       </c>
       <c r="N36" t="n">
         <v>34.21620827668144</v>
@@ -30122,10 +30122,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V36" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W36" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -30147,7 +30147,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>163.2620656773968</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30156,13 +30156,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>217.2033884337819</v>
+        <v>166.9968542415478</v>
       </c>
       <c r="H37" t="n">
         <v>155.7011408377324</v>
       </c>
       <c r="I37" t="n">
-        <v>135.7331106864345</v>
+        <v>198.5739778534715</v>
       </c>
       <c r="J37" t="n">
         <v>86.66140878686465</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="M37" t="n">
         <v>76.24414745277537</v>
@@ -30180,10 +30180,10 @@
         <v>67.98250497112167</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>79.46394233070276</v>
       </c>
       <c r="P37" t="n">
-        <v>217.2033884337819</v>
+        <v>83.63942497583898</v>
       </c>
       <c r="Q37" t="n">
         <v>103.5288848663846</v>
@@ -30192,25 +30192,25 @@
         <v>137.5187009483812</v>
       </c>
       <c r="S37" t="n">
-        <v>217.2033884337819</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="U37" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V37" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W37" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X37" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="C38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="D38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="E38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="F38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="G38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="H38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="I38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="J38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="K38" t="n">
-        <v>50.31254511991495</v>
+        <v>87.06467233799573</v>
       </c>
       <c r="L38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="M38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="N38" t="n">
-        <v>93.43707277407934</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="O38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="P38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.2033884337819</v>
+        <v>124.3626208658184</v>
       </c>
       <c r="R38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="S38" t="n">
-        <v>217.2033884337819</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="U38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Y38" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
     <row r="39">
@@ -30329,7 +30329,7 @@
         <v>66.98372024565222</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05064111562938</v>
+        <v>82.36781595332937</v>
       </c>
       <c r="M39" t="n">
         <v>44.85432453608092</v>
@@ -30338,7 +30338,7 @@
         <v>34.21620827668144</v>
       </c>
       <c r="O39" t="n">
-        <v>80.76614671109527</v>
+        <v>49.53708892351376</v>
       </c>
       <c r="P39" t="n">
         <v>55.62466529233118</v>
@@ -30356,13 +30356,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2915054838979</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V39" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W39" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9968542415478</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="H40" t="n">
         <v>155.7011408377324</v>
@@ -30402,13 +30402,13 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J40" t="n">
-        <v>217.2033884337819</v>
+        <v>86.66140878686465</v>
       </c>
       <c r="K40" t="n">
         <v>77.67194102076728</v>
       </c>
       <c r="L40" t="n">
-        <v>149.5022759538959</v>
+        <v>74.84944336390265</v>
       </c>
       <c r="M40" t="n">
         <v>76.24414745277537</v>
@@ -30417,37 +30417,37 @@
         <v>67.98250497112167</v>
       </c>
       <c r="O40" t="n">
-        <v>79.46394233070276</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>83.63942497583898</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.5288848663846</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="R40" t="n">
-        <v>137.5187009483812</v>
+        <v>169.1290522758162</v>
       </c>
       <c r="S40" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="U40" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V40" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W40" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X40" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.2033884337819</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="C41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="D41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="E41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="F41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="G41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="H41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="I41" t="n">
-        <v>151.0036693235604</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="J41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="K41" t="n">
-        <v>217.203388433782</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="M41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="N41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="O41" t="n">
-        <v>99.17432145262867</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="P41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="R41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="S41" t="n">
-        <v>173.4846907110956</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="T41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="U41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Y41" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
     <row r="42">
@@ -30551,7 +30551,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>158.3915200591491</v>
+        <v>127.1624622715678</v>
       </c>
       <c r="H42" t="n">
         <v>96.24631459259479</v>
@@ -30581,7 +30581,7 @@
         <v>55.62466529233118</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.50666629963224</v>
+        <v>78.15265312299758</v>
       </c>
       <c r="R42" t="n">
         <v>101.057477245434</v>
@@ -30590,16 +30590,16 @@
         <v>146.0937828749041</v>
       </c>
       <c r="T42" t="n">
-        <v>185.6746837770579</v>
+        <v>216.903741564641</v>
       </c>
       <c r="U42" t="n">
         <v>216.2915054838979</v>
       </c>
       <c r="V42" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W42" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>213.7967155915111</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="G43" t="n">
         <v>166.9968542415478</v>
@@ -30639,28 +30639,28 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J43" t="n">
-        <v>86.66140878686465</v>
+        <v>42.93429506732433</v>
       </c>
       <c r="K43" t="n">
-        <v>77.67194102076728</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>217.203388433782</v>
+        <v>74.84944336390265</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24414745277537</v>
+        <v>215.1914196803902</v>
       </c>
       <c r="N43" t="n">
         <v>67.98250497112167</v>
       </c>
       <c r="O43" t="n">
-        <v>79.46394233070276</v>
+        <v>40.88074975652034</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583898</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.58303897530766</v>
+        <v>103.5288848663846</v>
       </c>
       <c r="R43" t="n">
         <v>137.5187009483812</v>
@@ -30669,22 +30669,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T43" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="U43" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V43" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W43" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X43" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="C44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="D44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="E44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="F44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="G44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="H44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="I44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="J44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="K44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="L44" t="n">
-        <v>1.312828099315066</v>
+        <v>109.3445309366638</v>
       </c>
       <c r="M44" t="n">
-        <v>217.203388433782</v>
+        <v>59.62300403546137</v>
       </c>
       <c r="N44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="O44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="P44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="R44" t="n">
-        <v>142.436789794683</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="S44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="T44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="U44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Y44" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
     <row r="45">
@@ -30782,7 +30782,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>176.7867876312787</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
@@ -30821,7 +30821,7 @@
         <v>78.15265312299758</v>
       </c>
       <c r="R45" t="n">
-        <v>101.057477245434</v>
+        <v>132.2865350330171</v>
       </c>
       <c r="S45" t="n">
         <v>146.0937828749041</v>
@@ -30833,10 +30833,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V45" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W45" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -30855,13 +30855,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>217.203388433782</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>166.1547549455896</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30876,10 +30876,10 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J46" t="n">
-        <v>217.203388433782</v>
+        <v>86.66140878686465</v>
       </c>
       <c r="K46" t="n">
-        <v>77.67194102076728</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="L46" t="n">
         <v>74.84944336390265</v>
@@ -30894,34 +30894,34 @@
         <v>79.46394233070276</v>
       </c>
       <c r="P46" t="n">
-        <v>83.63942497583898</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.5288848663846</v>
+        <v>169.192249690286</v>
       </c>
       <c r="R46" t="n">
         <v>137.5187009483812</v>
       </c>
       <c r="S46" t="n">
-        <v>217.203388433782</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T46" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="U46" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="V46" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="W46" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="X46" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.203388433782</v>
+        <v>217.2033884337811</v>
       </c>
     </row>
   </sheetData>
@@ -35407,34 +35407,34 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.6928993799039</v>
+        <v>112.692899379904</v>
       </c>
       <c r="K11" t="n">
-        <v>103.023079309817</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>106.2300319137026</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>122.137490076287</v>
+        <v>122.1374900762871</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>20.97831167540159</v>
       </c>
       <c r="P11" t="n">
-        <v>102.6163586181516</v>
+        <v>102.6163586181517</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.21194198454788</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.111095350422716</v>
+        <v>73.1377730556835</v>
       </c>
       <c r="S11" t="n">
-        <v>42.08987213927073</v>
+        <v>42.08987213927087</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35480,13 +35480,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>35.28435194160899</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.28435194160943</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35544,10 +35544,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>47.6547530074298</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>21.53422387639392</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>48.57770860881865</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.25807227344808</v>
       </c>
       <c r="K13" t="n">
-        <v>137.902621829599</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>139.3304153975911</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35592,7 +35592,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>8.074597566435903</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>64.5708935268061</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>103.023079309817</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>119.8990349834626</v>
+        <v>119.8990349834627</v>
       </c>
       <c r="N14" t="n">
-        <v>122.137490076287</v>
+        <v>122.1374900762871</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>116.4002413977378</v>
       </c>
       <c r="P14" t="n">
-        <v>102.6163586181516</v>
+        <v>83.73730381842421</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.11690173141184</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.1377730556835</v>
       </c>
       <c r="S14" t="n">
-        <v>42.08987213927073</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35717,13 +35717,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>35.28435194160899</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>35.28435194160943</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>103.1205182958769</v>
+        <v>136.1106205196637</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.0456779839817</v>
+        <v>79.05557576019413</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>146.4499769106675</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="N17" t="n">
-        <v>146.4499769106675</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>110.797318685619</v>
+        <v>140.5328061263983</v>
       </c>
       <c r="T17" t="n">
-        <v>104.322766393853</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>71.86269795759364</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36127,31 +36127,31 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>140.5328061263983</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="O20" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="S20" t="n">
-        <v>110.797318685619</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>71.8626979575937</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>140.5328061263983</v>
       </c>
       <c r="K23" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36373,19 +36373,19 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>36.21003973254516</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="R23" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="T23" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.48102138753523</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>70.60302724063315</v>
+        <v>116.9439362532335</v>
       </c>
       <c r="K26" t="n">
-        <v>482.3222435130604</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>605.7782291286874</v>
+        <v>450.0755436163869</v>
       </c>
       <c r="M26" t="n">
         <v>488.6920656737786</v>
       </c>
       <c r="N26" t="n">
-        <v>159.4098366254154</v>
+        <v>348.1395021110291</v>
       </c>
       <c r="O26" t="n">
-        <v>569.3506049000358</v>
+        <v>74.31036925846692</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>478.8648071018083</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>325.1315577031532</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>96.76513670495453</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>120.1579861676657</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>92.97552108503841</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>123.9476017875818</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.146348236102495</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36759,22 +36759,22 @@
         <v>309.8523593512137</v>
       </c>
       <c r="M28" t="n">
-        <v>114.2197848915062</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>94.02074838039282</v>
       </c>
       <c r="P28" t="n">
-        <v>91.86910733241444</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>69.95580584471102</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>35.96598976271441</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>22.48102138753522</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>290.4286269643291</v>
       </c>
       <c r="K29" t="n">
-        <v>482.3222435130604</v>
+        <v>60.93320717054624</v>
       </c>
       <c r="L29" t="n">
         <v>433.6150479789217</v>
       </c>
       <c r="M29" t="n">
-        <v>488.6920656737785</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="N29" t="n">
-        <v>469.3893589825269</v>
+        <v>64.92528428287559</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>60.52648647888086</v>
+        <v>478.8648071018083</v>
       </c>
       <c r="Q29" t="n">
         <v>325.1315577031532</v>
@@ -36902,10 +36902,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>77.23837611850078</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2201637033604</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>114.7029591692599</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.6847467541194</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>21.94351647058068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>22.99576661480123</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36984,19 +36984,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>37.75158002466111</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>234.5796459383766</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>136.3676686401181</v>
       </c>
       <c r="M31" t="n">
-        <v>120.9365511916715</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>265.35379804351</v>
+        <v>89.84526573525659</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.95580584471101</v>
+        <v>10.20938817600124</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.48102138753516</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>290.428626964329</v>
+        <v>37.69331305681013</v>
       </c>
       <c r="K32" t="n">
         <v>482.3222435130604</v>
       </c>
       <c r="L32" t="n">
-        <v>404.6390651909088</v>
+        <v>433.6150479789217</v>
       </c>
       <c r="M32" t="n">
-        <v>488.6920656737785</v>
+        <v>48.61728023814686</v>
       </c>
       <c r="N32" t="n">
-        <v>80.04761793701617</v>
+        <v>80.04761793701626</v>
       </c>
       <c r="O32" t="n">
-        <v>74.31036925846684</v>
+        <v>395.8659141889402</v>
       </c>
       <c r="P32" t="n">
-        <v>305.3801163907127</v>
+        <v>478.8648071018083</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.6468669920577</v>
+        <v>325.1315577031532</v>
       </c>
       <c r="R32" t="n">
-        <v>98.6890351612811</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37130,7 +37130,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>27.92696086739812</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>92.97552108503882</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,19 +37160,19 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>123.9476017875817</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>117.8600254187644</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>43.74522875026612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>27.39090783619147</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37212,43 +37212,43 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>22.52884228661486</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.487836469547799</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>37.75158002466105</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>86.82328192423086</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>213.9358956038402</v>
+        <v>98.63524734719294</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>105.5021857399739</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>94.02074838039283</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>20.42759213952431</v>
       </c>
       <c r="Q34" t="n">
         <v>154.9016517357879</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>35.96598976271444</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>66.19971911022155</v>
+        <v>66.19971911022073</v>
       </c>
       <c r="J35" t="n">
-        <v>334.1473246870154</v>
+        <v>114.3217249633186</v>
       </c>
       <c r="K35" t="n">
-        <v>104.6519048932326</v>
+        <v>104.6519048932317</v>
       </c>
       <c r="L35" t="n">
-        <v>107.8588574971181</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>459.3282522180192</v>
+        <v>459.328252218022</v>
       </c>
       <c r="N35" t="n">
-        <v>123.7663156597026</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>118.0290669811532</v>
+        <v>459.328252218022</v>
       </c>
       <c r="P35" t="n">
-        <v>20.94574467864181</v>
+        <v>104.2451842015664</v>
       </c>
       <c r="Q35" t="n">
-        <v>368.8502554258395</v>
+        <v>368.8502554258387</v>
       </c>
       <c r="R35" t="n">
-        <v>71.25815273711247</v>
+        <v>98.11030085784802</v>
       </c>
       <c r="S35" t="n">
-        <v>43.71869772268632</v>
+        <v>43.7186977226855</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>31.2290577875815</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>31.22905778758317</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>11.72089143688195</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.2065341922341</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.8408671670371</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>142.3539450698784</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>133.5639634579429</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>9.703423149851494</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>66.19971911022155</v>
+        <v>66.19971911022073</v>
       </c>
       <c r="J38" t="n">
-        <v>114.3217249633195</v>
+        <v>334.1473246870145</v>
       </c>
       <c r="K38" t="n">
-        <v>282.4772344029687</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>459.3282522180192</v>
+        <v>107.8588574971172</v>
       </c>
       <c r="M38" t="n">
-        <v>121.5278605668782</v>
+        <v>121.5278605668774</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>195.5974266743817</v>
       </c>
       <c r="O38" t="n">
-        <v>459.3282522180192</v>
+        <v>459.328252218022</v>
       </c>
       <c r="P38" t="n">
-        <v>104.2451842015672</v>
+        <v>459.328252218022</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.84076756796347</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>74.76659863909894</v>
+        <v>74.76659863909812</v>
       </c>
       <c r="S38" t="n">
-        <v>43.71869772268632</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>30.31717483769999</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>31.2290577875815</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37652,7 +37652,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.911882949883175</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>50.20653419223328</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>130.5419796469172</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>74.65283258999324</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37719,13 +37719,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>113.6745035673965</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>31.61035132743503</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.70342314985067</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>66.19971911022076</v>
       </c>
       <c r="J41" t="n">
-        <v>334.1473246870155</v>
+        <v>114.3217249633187</v>
       </c>
       <c r="K41" t="n">
-        <v>459.3282522180192</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>107.8588574971182</v>
+        <v>459.328252218022</v>
       </c>
       <c r="M41" t="n">
-        <v>459.3282522180192</v>
+        <v>121.5278605668774</v>
       </c>
       <c r="N41" t="n">
-        <v>123.7663156597027</v>
+        <v>459.328252218022</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>118.0290669811524</v>
       </c>
       <c r="P41" t="n">
-        <v>104.2451842015673</v>
+        <v>183.2620057885167</v>
       </c>
       <c r="Q41" t="n">
-        <v>155.3135064902014</v>
+        <v>92.84076756796267</v>
       </c>
       <c r="R41" t="n">
-        <v>74.76659863909906</v>
+        <v>160.1979444739753</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>43.71869772268553</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>31.22905778758126</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>31.22905778758311</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.84086716703044</v>
+        <v>66.24754000930045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>142.3539450698794</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>138.9472722276149</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>66.19971911022166</v>
+        <v>66.19971911022076</v>
       </c>
       <c r="J44" t="n">
-        <v>334.1473246870155</v>
+        <v>334.1473246870146</v>
       </c>
       <c r="K44" t="n">
-        <v>196.970682018812</v>
+        <v>104.6519048932318</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>121.5278605668783</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>123.7663156597027</v>
+        <v>123.7663156597018</v>
       </c>
       <c r="O44" t="n">
-        <v>459.3282522180192</v>
+        <v>157.8938774200631</v>
       </c>
       <c r="P44" t="n">
-        <v>104.2451842015673</v>
+        <v>459.328252218022</v>
       </c>
       <c r="Q44" t="n">
-        <v>368.8502554258396</v>
+        <v>368.8502554258387</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>160.1979444739753</v>
       </c>
       <c r="S44" t="n">
-        <v>43.71869772268644</v>
+        <v>43.71869772268553</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38078,7 +38078,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>31.22905778758126</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.22905778758311</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38151,13 +38151,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.28357859084551</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.66583084929531</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>130.5419796469174</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>139.5314474130138</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.66336482390149</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.703423149851607</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
